--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -457,10 +457,10 @@
         <v>2.854403782695731</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473027724742889</v>
+        <v>2.473181488275528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0783269219270539</v>
+        <v>0.07832369566422014</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -476,10 +476,10 @@
         <v>0.007919222916251663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07370234677940607</v>
+        <v>0.0737104706466198</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002793042666449589</v>
+        <v>0.002764621215563293</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -495,10 +495,10 @@
         <v>-0.06572400230054178</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3557806353867054</v>
+        <v>-0.3553615785241127</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01265455689849351</v>
+        <v>0.01276544589854166</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -514,10 +514,10 @@
         <v>1.117090394718578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2193343445211649</v>
+        <v>0.2192557923197746</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008757212501268137</v>
+        <v>0.00872373706987185</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -533,10 +533,10 @@
         <v>2.854278010739123</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589511615514755</v>
+        <v>2.590018828868866</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08229115197135939</v>
+        <v>0.08228554144895743</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -552,10 +552,10 @@
         <v>0.007923705946179048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3511904751360416</v>
+        <v>0.3512571058273316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01193093115858753</v>
+        <v>0.0119781230445389</v>
       </c>
       <c r="G10" t="n">
         <v>0.5</v>
@@ -571,10 +571,10 @@
         <v>2.854340896717427</v>
       </c>
       <c r="E11" t="n">
-        <v>2.531346745561501</v>
+        <v>2.493152830425009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08022344773487426</v>
+        <v>0.0791198309961101</v>
       </c>
       <c r="G11" t="n">
         <v>1.105170918075648</v>
@@ -590,10 +590,10 @@
         <v>0.0007912797739200644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03886315165764806</v>
+        <v>0.03909982591960114</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004045399688393174</v>
+        <v>0.004101336515358768</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -609,10 +609,10 @@
         <v>8.881711748082357e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.282849339368839</v>
+        <v>0.2825217693813514</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01310498917540976</v>
+        <v>0.01254699162679496</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -628,10 +628,10 @@
         <v>0.1425999192571659</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5285899197979156</v>
+        <v>0.5282719529145604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01962169850300514</v>
+        <v>0.01939026402291606</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -647,10 +647,10 @@
         <v>0.8365199838514333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1486975891755972</v>
+        <v>0.1491064517844871</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008435343937196856</v>
+        <v>0.008387109045646749</v>
       </c>
       <c r="G15" t="n">
         <v>0.6703200460356393</v>
@@ -666,10 +666,10 @@
         <v>0.217209462401804</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2381999729142856</v>
+        <v>0.237957678738291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0199206352053403</v>
+        <v>0.02027236508193275</v>
       </c>
       <c r="G16" t="n">
         <v>0.3</v>
@@ -685,10 +685,10 @@
         <v>0.2194322570738679</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2242346046674926</v>
+        <v>0.223306664854611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02253028241901948</v>
+        <v>0.02152907668993171</v>
       </c>
       <c r="G17" t="n">
         <v>0.9</v>
@@ -704,10 +704,10 @@
         <v>-0.03926685635724474</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06573107417067822</v>
+        <v>-0.06544764566935581</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0202643320763422</v>
+        <v>0.02023232689571848</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>-0.04061954928850896</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.024197713692159</v>
+        <v>-0.02382485121264313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02109193525631751</v>
+        <v>0.02063507947151756</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -742,10 +742,10 @@
         <v>7.380073800738007e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3770497444700439</v>
+        <v>0.3765062207061096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01446834731903008</v>
+        <v>0.01454823579308034</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -761,10 +761,10 @@
         <v>6.785424194571038e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007264937352508306</v>
+        <v>0.0007288580738247734</v>
       </c>
       <c r="F21" t="n">
-        <v>4.265286409533425e-05</v>
+        <v>4.415261196961556e-05</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:G47"/>
+  <dimension ref="C4:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -454,13 +454,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.854403782695731</v>
+        <v>3.670902878459489</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473181488275528</v>
+        <v>2.473261641263962</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07832369566422014</v>
+        <v>0.0783253095030798</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.007919222916251663</v>
+        <v>0.01277556454350923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0737104706466198</v>
+        <v>0.07372376426309347</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002764621215563293</v>
+        <v>0.002798821723975572</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.06572400230054178</v>
+        <v>-0.07566000230054178</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3553615785241127</v>
+        <v>-0.355287629455328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01276544589854166</v>
+        <v>0.0128053892081554</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.117090394718578</v>
+        <v>1.114972241540058</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2192557923197746</v>
+        <v>0.2194505100846291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00872373706987185</v>
+        <v>0.00886007854017933</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.854278010739123</v>
+        <v>3.615980268991969</v>
       </c>
       <c r="E9" t="n">
-        <v>2.590018828868866</v>
+        <v>2.589999912023544</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08228554144895743</v>
+        <v>0.08232039181823812</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.007923705946179048</v>
+        <v>0.01214560133699977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3512571058273316</v>
+        <v>0.3512430453896522</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0119781230445389</v>
+        <v>0.0119967150570663</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.854340896717427</v>
+        <v>3.650583786156688</v>
       </c>
       <c r="E11" t="n">
-        <v>2.493152830425009</v>
+        <v>2.493014174499979</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0791198309961101</v>
+        <v>0.0791465287241081</v>
       </c>
       <c r="G11" t="n">
-        <v>1.105170918075648</v>
+        <v>1.648721270700128</v>
       </c>
     </row>
     <row r="12">
@@ -590,13 +590,13 @@
         <v>0.0007912797739200644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03909982591960114</v>
+        <v>0.03909417681869603</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004101336515358768</v>
+        <v>0.004231728550053346</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8.881711748082357e-05</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2825217693813514</v>
+        <v>0.2820650642440634</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01254699162679496</v>
+        <v>0.01279616005355091</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1425999192571659</v>
+        <v>0.1215987081146548</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5282719529145604</v>
+        <v>0.5289237829071421</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01939026402291606</v>
+        <v>0.01962505180764044</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8365199838514333</v>
+        <v>0.857610012111425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1491064517844871</v>
+        <v>0.1489169760300986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008387109045646749</v>
+        <v>0.008806213024983618</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6703200460356393</v>
+        <v>1.105170918075648</v>
       </c>
     </row>
     <row r="16">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.217209462401804</v>
+        <v>0.07229614024731475</v>
       </c>
       <c r="E16" t="n">
-        <v>0.237957678738291</v>
+        <v>0.2388966062350264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02027236508193275</v>
+        <v>0.02006172041813638</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2194322570738679</v>
+        <v>0.08750361620423924</v>
       </c>
       <c r="E17" t="n">
-        <v>0.223306664854611</v>
+        <v>0.2253216874745936</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02152907668993171</v>
+        <v>0.021368841290293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="18">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.03926685635724474</v>
+        <v>-0.05180936608027802</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06544764566935581</v>
+        <v>-0.06406716699010556</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02023232689571848</v>
+        <v>0.01983367503877566</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.04061954928850896</v>
+        <v>-0.05736293491284885</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02382485121264313</v>
+        <v>-0.02402186754215816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02063507947151756</v>
+        <v>0.02040587471277458</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7.380073800738007e-05</v>
+        <v>5.676979846721544e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3765062207061096</v>
+        <v>0.37639125162827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01454823579308034</v>
+        <v>0.01430589506072067</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -758,108 +758,54 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.785424194571038e-05</v>
+        <v>5.885437540104878e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007288580738247734</v>
+        <v>0.0007270752150615672</v>
       </c>
       <c r="F21" t="n">
-        <v>4.415261196961556e-05</v>
+        <v>4.306285600158549e-05</v>
       </c>
       <c r="G21" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>corr(Test,p)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8926645140676471</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.207257696491332</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01379333331636985</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>corr(Port,p)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8960590819788264</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4189456651457047</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.01968773684293254</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Betas Opt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="G31" t="n">
-        <v>0.4336679009581597</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="G32" t="n">
-        <v>0.1289371483055453</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="G33" t="n">
-        <v>0.1560965578054957</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="G34" t="n">
-        <v>-0.007164158535020221</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="G35" t="n">
-        <v>0.1066501751148974</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="G36" t="n">
-        <v>0.4416838222904751</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="G37" t="n">
-        <v>1.136883581599042</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="G38" t="n">
-        <v>0.1127162263464778</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="n">
-        <v>-0.005412080631199753</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="n">
-        <v>0.07033021650070145</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="G41" t="n">
-        <v>0.6610236445322215</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="G42" t="n">
-        <v>0.3390989443134835</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="G43" t="n">
-        <v>1.064856021761771</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="G44" t="n">
-        <v>0.9562865114600571</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="G45" t="n">
-        <v>-0.2176047381050997</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="G46" t="n">
-        <v>-0.2503020242910924</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="G47" t="n">
-        <v>0.6206039507287795</v>
       </c>
     </row>
   </sheetData>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +25,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:G23"/>
+  <dimension ref="C4:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -465,6 +486,12 @@
       <c r="G5" t="n">
         <v>0.5</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -484,6 +511,12 @@
       <c r="G6" t="n">
         <v>0.1</v>
       </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
@@ -503,6 +536,12 @@
       <c r="G7" t="n">
         <v>0.2</v>
       </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -522,6 +561,12 @@
       <c r="G8" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -541,6 +586,12 @@
       <c r="G9" t="n">
         <v>0.1</v>
       </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -560,6 +611,12 @@
       <c r="G10" t="n">
         <v>0.8</v>
       </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -577,7 +634,13 @@
         <v>0.0791465287241081</v>
       </c>
       <c r="G11" t="n">
-        <v>1.648721270700128</v>
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -598,6 +661,12 @@
       <c r="G12" t="n">
         <v>0.1</v>
       </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
@@ -617,6 +686,12 @@
       <c r="G13" t="n">
         <v>0.2</v>
       </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
@@ -636,6 +711,12 @@
       <c r="G14" t="n">
         <v>-0.01</v>
       </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
@@ -653,7 +734,13 @@
         <v>0.008806213024983618</v>
       </c>
       <c r="G15" t="n">
-        <v>1.105170918075648</v>
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -674,6 +761,12 @@
       <c r="G16" t="n">
         <v>0.7</v>
       </c>
+      <c r="H16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
@@ -693,6 +786,12 @@
       <c r="G17" t="n">
         <v>-0.4</v>
       </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
@@ -712,6 +811,12 @@
       <c r="G18" t="n">
         <v>0.3</v>
       </c>
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
@@ -731,6 +836,12 @@
       <c r="G19" t="n">
         <v>0.9</v>
       </c>
+      <c r="H19" t="n">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
@@ -750,6 +861,12 @@
       <c r="G20" t="n">
         <v>1</v>
       </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
@@ -769,6 +886,12 @@
       <c r="G21" t="n">
         <v>-0.1</v>
       </c>
+      <c r="H21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
@@ -788,6 +911,12 @@
       <c r="G22" t="n">
         <v>-0.2</v>
       </c>
+      <c r="H22" t="n">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
@@ -806,6 +935,12 @@
       </c>
       <c r="G23" t="n">
         <v>0.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -63,11 +69,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,12 +443,12 @@
   <dimension ref="C4:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.88671875" customWidth="1" min="3" max="3"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
@@ -469,7 +476,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Mean Portfolio</t>
         </is>
@@ -478,10 +485,10 @@
         <v>3.670902878459489</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473261641263962</v>
+        <v>2.473061220645905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0783253095030798</v>
+        <v>0.07832916284900973</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -494,7 +501,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Variance Portfolio</t>
         </is>
@@ -503,10 +510,10 @@
         <v>0.01277556454350923</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07372376426309347</v>
+        <v>0.07369284494221211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002798821723975572</v>
+        <v>0.002783564213846411</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -528,10 +535,10 @@
         <v>-0.07566000230054178</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.355287629455328</v>
+        <v>-0.3555377784073353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0128053892081554</v>
+        <v>0.01288778530353291</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -553,10 +560,10 @@
         <v>1.114972241540058</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2194505100846291</v>
+        <v>0.2191530164182186</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00886007854017933</v>
+        <v>0.008659074032248396</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -578,10 +585,10 @@
         <v>3.615980268991969</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589999912023544</v>
+        <v>2.589781639575958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08232039181823812</v>
+        <v>0.08230253307508384</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -603,10 +610,10 @@
         <v>0.01214560133699977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3512430453896522</v>
+        <v>0.3511778325140476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0119967150570663</v>
+        <v>0.0119218879787851</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -628,10 +635,10 @@
         <v>3.650583786156688</v>
       </c>
       <c r="E11" t="n">
-        <v>2.493014174499979</v>
+        <v>2.492751276907105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0791465287241081</v>
+        <v>0.07913589420395703</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -653,10 +660,10 @@
         <v>0.0007912797739200644</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03909417681869603</v>
+        <v>0.03906355075637789</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004231728550053346</v>
+        <v>0.004151781131971025</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -678,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2820650642440634</v>
+        <v>0.2819464002138216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01279616005355091</v>
+        <v>0.01260796953651531</v>
       </c>
       <c r="G13" t="n">
         <v>0.2</v>
@@ -703,10 +710,10 @@
         <v>0.1215987081146548</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5289237829071421</v>
+        <v>0.5292109863236891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01962505180764044</v>
+        <v>0.01958989837357479</v>
       </c>
       <c r="G14" t="n">
         <v>-0.01</v>
@@ -728,10 +735,10 @@
         <v>0.857610012111425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1489169760300986</v>
+        <v>0.1487790627061114</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008806213024983618</v>
+        <v>0.008470150083411928</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
@@ -744,7 +751,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>corr(Port,Simce)</t>
         </is>
@@ -753,10 +760,10 @@
         <v>0.07229614024731475</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2388966062350264</v>
+        <v>0.2376130964434833</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02006172041813638</v>
+        <v>0.02001302395303313</v>
       </c>
       <c r="G16" t="n">
         <v>0.7</v>
@@ -778,10 +785,10 @@
         <v>0.08750361620423924</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2253216874745936</v>
+        <v>0.2233106640984711</v>
       </c>
       <c r="F17" t="n">
-        <v>0.021368841290293</v>
+        <v>0.02281398648347867</v>
       </c>
       <c r="G17" t="n">
         <v>-0.4</v>
@@ -794,7 +801,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>corr(exp,Port)</t>
         </is>
@@ -803,10 +810,10 @@
         <v>-0.05180936608027802</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06406716699010556</v>
+        <v>-0.06442406483704478</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01983367503877566</v>
+        <v>0.02039985806147387</v>
       </c>
       <c r="G18" t="n">
         <v>0.3</v>
@@ -828,10 +835,10 @@
         <v>-0.05736293491284885</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02402186754215816</v>
+        <v>-0.02309734607456363</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02040587471277458</v>
+        <v>0.01991379409350854</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -853,10 +860,10 @@
         <v>5.676979846721544e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>0.37639125162827</v>
+        <v>0.3765854119387505</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01430589506072067</v>
+        <v>0.01441365738855017</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -878,10 +885,10 @@
         <v>5.885437540104878e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007270752150615672</v>
+        <v>0.0007257472485365271</v>
       </c>
       <c r="F21" t="n">
-        <v>4.306285600158549e-05</v>
+        <v>4.223329746471656e-05</v>
       </c>
       <c r="G21" t="n">
         <v>-0.1</v>
@@ -903,10 +910,10 @@
         <v>0.8926645140676471</v>
       </c>
       <c r="E22" t="n">
-        <v>0.207257696491332</v>
+        <v>0.2075604273340413</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01379333331636985</v>
+        <v>0.01424155711625982</v>
       </c>
       <c r="G22" t="n">
         <v>-0.2</v>
@@ -919,7 +926,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>corr(Port,p)</t>
         </is>
@@ -928,10 +935,10 @@
         <v>0.8960590819788264</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4189456651457047</v>
+        <v>0.4181892794666023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01968773684293254</v>
+        <v>0.0197484068963527</v>
       </c>
       <c r="G23" t="n">
         <v>0.8</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,74 +73,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,17 +365,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:I23"/>
+  <dimension ref="C4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="21.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -467,6 +400,11 @@
           <t>Betas Opt</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" t="inlineStr">
@@ -475,13 +413,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.670902878459489</v>
+        <v>2.434149450078229</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473261641263962</v>
+        <v>2.473027724742889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0783253095030798</v>
+        <v>0.0783269219270539</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -492,6 +430,10 @@
       <c r="I5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J5">
+        <f>(D5-E5)^2/F5^2</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
@@ -500,13 +442,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.01277556454350923</v>
+        <v>0.07435716934785797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07372376426309347</v>
+        <v>0.07370234677940607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002798821723975572</v>
+        <v>0.002793042666449589</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -517,6 +459,10 @@
       <c r="I6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J6">
+        <f>(D6-E6)^2/F6^2</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
@@ -525,13 +471,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.07566000230054178</v>
+        <v>-0.3367645743958274</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.355287629455328</v>
+        <v>-0.3557806353867054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0128053892081554</v>
+        <v>0.01265455689849351</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -542,6 +488,10 @@
       <c r="I7" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="J7">
+        <f>(D7-E7)^2/F7^2</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
@@ -550,13 +500,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.114972241540058</v>
+        <v>0.2239362231137146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2194505100846291</v>
+        <v>0.2193343445211649</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00886007854017933</v>
+        <v>0.008757212501268137</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -567,6 +517,10 @@
       <c r="I8" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="J8">
+        <f>(D8-E8)^2/F8^2</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
@@ -575,13 +529,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.615980268991969</v>
+        <v>2.464734452702176</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589999912023544</v>
+        <v>2.589511615514755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08232039181823812</v>
+        <v>0.08229115197135939</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -592,6 +546,10 @@
       <c r="I9" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="J9">
+        <f>(D9-E9)^2/F9^2</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
@@ -600,13 +558,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01214560133699977</v>
+        <v>0.2941961649317104</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3512430453896522</v>
+        <v>0.3511904751360416</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0119967150570663</v>
+        <v>0.01193093115858753</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -617,6 +575,10 @@
       <c r="I10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J10">
+        <f>(D10-E10)^2/F10^2</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -625,13 +587,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.650583786156688</v>
+        <v>2.408831532715272</v>
       </c>
       <c r="E11" t="n">
-        <v>2.493014174499979</v>
+        <v>2.492676636982605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0791465287241081</v>
+        <v>0.07912521321515038</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -642,6 +604,10 @@
       <c r="I11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="J11">
+        <f>(D11-E11)^2/F11^2</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -650,13 +616,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0007912797739200644</v>
+        <v>0.02815502624142108</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03909417681869603</v>
+        <v>0.03886315165764806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004231728550053346</v>
+        <v>0.004045399688393174</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -667,6 +633,10 @@
       <c r="I12" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="J12">
+        <f>(D12-E12)^2/F12^2</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
@@ -675,13 +645,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.3690512716996367</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2820650642440634</v>
+        <v>0.282849339368839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01279616005355091</v>
+        <v>0.01310498917540976</v>
       </c>
       <c r="G13" t="n">
         <v>0.2</v>
@@ -692,6 +662,10 @@
       <c r="I13" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="J13">
+        <f>(D13-E13)^2/F13^2</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
@@ -700,13 +674,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1215987081146548</v>
+        <v>0.3372547436415019</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5289237829071421</v>
+        <v>0.5285899197979156</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01962505180764044</v>
+        <v>0.01962169850300514</v>
       </c>
       <c r="G14" t="n">
         <v>-0.01</v>
@@ -717,6 +691,10 @@
       <c r="I14" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="J14">
+        <f>(D14-E14)^2/F14^2</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
@@ -725,13 +703,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.857610012111425</v>
+        <v>0.2455389584174404</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1489169760300986</v>
+        <v>0.1486975891755972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008806213024983618</v>
+        <v>0.008435343937196856</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
@@ -742,6 +720,10 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J15">
+        <f>(D15-E15)^2/F15^2</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
@@ -750,13 +732,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.07229614024731475</v>
+        <v>0.2397111377781688</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2388966062350264</v>
+        <v>0.2381999729142856</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02006172041813638</v>
+        <v>0.0199206352053403</v>
       </c>
       <c r="G16" t="n">
         <v>0.7</v>
@@ -767,6 +749,10 @@
       <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="J16">
+        <f>(D16-E16)^2/F16^2</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
@@ -775,13 +761,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.08750361620423924</v>
+        <v>0.1878419201226336</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2253216874745936</v>
+        <v>0.2242346046674926</v>
       </c>
       <c r="F17" t="n">
-        <v>0.021368841290293</v>
+        <v>0.02253028241901948</v>
       </c>
       <c r="G17" t="n">
         <v>-0.4</v>
@@ -792,6 +778,10 @@
       <c r="I17" s="2" t="n">
         <v>2</v>
       </c>
+      <c r="J17">
+        <f>(D17-E17)^2/F17^2</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
@@ -800,13 +790,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.05180936608027802</v>
+        <v>-0.008810638236324242</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06406716699010556</v>
+        <v>-0.06573107417067822</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01983367503877566</v>
+        <v>0.0202643320763422</v>
       </c>
       <c r="G18" t="n">
         <v>0.3</v>
@@ -817,6 +807,10 @@
       <c r="I18" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="J18">
+        <f>(D18-E18)^2/F18^2</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
@@ -825,13 +819,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.05736293491284885</v>
+        <v>0.003336350609996033</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02402186754215816</v>
+        <v>-0.024197713692159</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02040587471277458</v>
+        <v>0.02109193525631751</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -842,6 +836,10 @@
       <c r="I19" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="J19">
+        <f>(D19-E19)^2/F19^2</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
@@ -850,13 +848,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5.676979846721544e-06</v>
+        <v>0.4712517740562021</v>
       </c>
       <c r="E20" t="n">
-        <v>0.37639125162827</v>
+        <v>0.3770497444700439</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01430589506072067</v>
+        <v>0.01446834731903008</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -867,6 +865,10 @@
       <c r="I20" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="J20">
+        <f>(D20-E20)^2/F20^2</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
@@ -875,13 +877,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5.885437540104878e-05</v>
+        <v>0.0006184172684453536</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007270752150615672</v>
+        <v>0.0007264937352508306</v>
       </c>
       <c r="F21" t="n">
-        <v>4.306285600158549e-05</v>
+        <v>4.265286409533425e-05</v>
       </c>
       <c r="G21" t="n">
         <v>-0.1</v>
@@ -892,21 +894,25 @@
       <c r="I21" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="J21">
+        <f>(D21-E21)^2/F21^2</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>corr(Test,p)</t>
+          <t>Corr(Test,p)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8926645140676471</v>
+        <v>0.4887102340753285</v>
       </c>
       <c r="E22" t="n">
-        <v>0.207257696491332</v>
+        <v>0.4184414642568783</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01379333331636985</v>
+        <v>0.01974929182721234</v>
       </c>
       <c r="G22" t="n">
         <v>-0.2</v>
@@ -917,21 +923,25 @@
       <c r="I22" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="J22">
+        <f>(D22-E22)^2/F22^2</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>corr(Port,p)</t>
+          <t>Corr(Port,p)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8960590819788264</v>
+        <v>0.2428541203880704</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4189456651457047</v>
+        <v>0.2074577010347085</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01968773684293254</v>
+        <v>0.01433207082703089</v>
       </c>
       <c r="G23" t="n">
         <v>0.8</v>
@@ -941,6 +951,16 @@
       </c>
       <c r="I23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="J23">
+        <f>(D23-E23)^2/F23^2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="J24">
+        <f>SUM(J5:J23)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge-home/Dropbox/Research/teachers-reform/codes/teachers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D6C134-650D-F745-9F3C-2F4BA900DD8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876AFFE-4D7C-3B48-823F-5CD39D7DD393}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -106,6 +106,18 @@
     <t>Corr(Port,p)</t>
   </si>
   <si>
+    <t>Moment</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>S.E. data</t>
+  </si>
+  <si>
     <t>$E(Portfolio)$</t>
   </si>
   <si>
@@ -127,52 +139,40 @@
     <t>$E(STEI+Portfolio\mid \text{Control group})/2$</t>
   </si>
   <si>
+    <t>% Initial</t>
+  </si>
+  <si>
+    <t>% Intermediate</t>
+  </si>
+  <si>
+    <t>% Advanced</t>
+  </si>
+  <si>
+    <t>% Expert</t>
+  </si>
+  <si>
     <t>corr(Portfolio,SIMCE)</t>
   </si>
   <si>
     <t>corr(STEI,Simce)</t>
   </si>
   <si>
+    <t>corr(experience,Portfolio)</t>
+  </si>
+  <si>
     <t>corr(experience,STEI)</t>
   </si>
   <si>
-    <t>corr(Portfolio,p)</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>S.E. data</t>
+    <t>% intermediate (control group)</t>
+  </si>
+  <si>
+    <t>% advanced/expert (control group)</t>
   </si>
   <si>
     <t>corr(STEI, past test scores)</t>
   </si>
   <si>
-    <t>Moment</t>
-  </si>
-  <si>
-    <t>% Initial</t>
-  </si>
-  <si>
-    <t>% Intermediate</t>
-  </si>
-  <si>
-    <t>% Advanced</t>
-  </si>
-  <si>
-    <t>% Expert</t>
-  </si>
-  <si>
-    <t>% intermediate (control group)</t>
-  </si>
-  <si>
-    <t>% advanced/expert (control group)</t>
-  </si>
-  <si>
-    <t>corr(experience,Portfolio)</t>
+    <t>corr(Portfolio,past test scores)</t>
   </si>
 </sst>
 </file>
@@ -180,8 +180,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0.E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -267,22 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -293,6 +278,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2.4556223374512651</v>
+        <v>2.480391689569148</v>
       </c>
       <c r="E5">
         <v>2.4730277247428889</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J23" si="0">(D5-E5)^2/F5^2</f>
-        <v>4.9379337908204438E-2</v>
+        <v>8.8389624870011639E-3</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>7.5782438502518326E-2</v>
+        <v>7.4423039036823291E-2</v>
       </c>
       <c r="E6">
         <v>7.3702346779406069E-2</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.55463826898283952</v>
+        <v>6.6580119858904385E-2</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>-0.14116239057833041</v>
+        <v>-0.35637780810884351</v>
       </c>
       <c r="E7">
         <v>-0.3557806353867054</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>287.63345095789765</v>
+        <v>2.2269272909625245E-3</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0.34964724713083711</v>
+        <v>0.22549294153943289</v>
       </c>
       <c r="E8">
         <v>0.2193343445211649</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>221.43336516026318</v>
+        <v>0.49457458818983246</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>2.4899557079398371</v>
+        <v>2.4472197770404578</v>
       </c>
       <c r="E9">
         <v>2.5895116155147551</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1.4636181546576723</v>
+        <v>2.9898795828376992</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>0.29613999580775707</v>
+        <v>0.28148177089739251</v>
       </c>
       <c r="E10">
         <v>0.35119047513604162</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>21.289895504970389</v>
+        <v>34.136999078663415</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>2.448593788699402</v>
+        <v>2.4451046912321068</v>
       </c>
       <c r="E11">
         <v>2.4926766369826052</v>
@@ -812,7 +812,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0.31039127738332378</v>
+        <v>0.361469820396154</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.2">
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>2.8155026241421081E-2</v>
+        <v>2.205894226887363E-2</v>
       </c>
       <c r="E12">
         <v>3.886315165764806E-2</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>7.0065467622632465</v>
+        <v>17.254933723527788</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>0.3690512716996367</v>
+        <v>0.37433992733144927</v>
       </c>
       <c r="E13">
         <v>0.28284933936883899</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>43.26738711998118</v>
+        <v>48.739324303523055</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.2">
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>0.33725474364150188</v>
+        <v>0.36022607993540567</v>
       </c>
       <c r="E14">
         <v>0.52858991979791559</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>95.085970730067089</v>
+        <v>73.624854184011156</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.2">
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>0.24553895841744039</v>
+        <v>0.22337505046427131</v>
       </c>
       <c r="E15">
         <v>0.14869758917559719</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>131.80025568651095</v>
+        <v>78.374268594795467</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>0.2397111377781688</v>
+        <v>0.25466100380387252</v>
       </c>
       <c r="E16">
         <v>0.2381999729142856</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>5.7546289916944405E-3</v>
+        <v>0.6828222976615469</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>0.18784192012263359</v>
+        <v>1.861272579798862E-2</v>
       </c>
       <c r="E17">
         <v>0.22423460466749259</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>2.6091251709084018</v>
+        <v>83.292399798100035</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>-8.8106382363242423E-3</v>
+        <v>8.1292229725574115E-3</v>
       </c>
       <c r="E18">
         <v>-6.5731074170678222E-2</v>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>7.8899063370475719</v>
+        <v>13.284876258867376</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>3.3363506099960329E-3</v>
+        <v>-1.77898130278531E-2</v>
       </c>
       <c r="E19">
         <v>-2.4197713692158999E-2</v>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1.7041498690571304</v>
+        <v>9.2299358421040173E-2</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="D20">
-        <v>0.42617087709338619</v>
+        <v>0.42207777462390011</v>
       </c>
       <c r="E20">
         <v>0.37704974447004391</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>11.526538173987648</v>
+        <v>9.6856338054875639</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>5.0558685880444936E-4</v>
+        <v>5.638690926526303E-4</v>
       </c>
       <c r="E21">
         <v>7.2649373525083064E-4</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>26.823909304883646</v>
+        <v>14.537050945116203</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="D22">
-        <v>0.48752407297189287</v>
+        <v>0.44372231120593453</v>
       </c>
       <c r="E22">
         <v>0.41844146425687828</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>12.235857310641435</v>
+        <v>1.6386272935094421</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>23</v>
       </c>
       <c r="D23">
-        <v>0.24237616933549119</v>
+        <v>0.21227941372297479</v>
       </c>
       <c r="E23">
         <v>0.20745770103470851</v>
@@ -1136,13 +1136,13 @@
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>5.935980680400581</v>
+        <v>0.11318392895042353</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J24">
         <f>SUM(J5:J23)</f>
-        <v>878.62612043680394</v>
+        <v>379.38084357169515</v>
       </c>
     </row>
   </sheetData>
@@ -1151,22 +1151,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821FA6-FF4A-324C-AAB4-43BF24B94E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
@@ -1179,346 +1179,348 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8">
-        <f>Sheet!D5</f>
-        <v>2.4556223374512651</v>
-      </c>
-      <c r="F4" s="8">
-        <f>Sheet!E5</f>
+        <v>28</v>
+      </c>
+      <c r="D4" s="12">
+        <f>data!D5</f>
+        <v>2.480391689569148</v>
+      </c>
+      <c r="F4" s="12">
+        <f>data!E5</f>
         <v>2.4730277247428889</v>
       </c>
-      <c r="H4" s="7">
-        <f>Sheet!F5</f>
+      <c r="H4" s="14">
+        <f>data!F5</f>
         <v>7.83269219270539E-2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8">
-        <f>Sheet!D6</f>
-        <v>7.5782438502518326E-2</v>
-      </c>
-      <c r="F5" s="8">
-        <f>Sheet!E6</f>
+        <v>29</v>
+      </c>
+      <c r="D5" s="12">
+        <f>data!D6</f>
+        <v>7.4423039036823291E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <f>data!E6</f>
         <v>7.3702346779406069E-2</v>
       </c>
-      <c r="H5" s="7">
-        <f>Sheet!F6</f>
+      <c r="H5" s="14">
+        <f>data!F6</f>
         <v>2.793042666449589E-3</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8">
-        <f>Sheet!D7</f>
-        <v>-0.14116239057833041</v>
-      </c>
-      <c r="F6" s="8">
-        <f>Sheet!E7</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <f>data!D7</f>
+        <v>-0.35637780810884351</v>
+      </c>
+      <c r="F6" s="12">
+        <f>data!E7</f>
         <v>-0.3557806353867054</v>
       </c>
-      <c r="H6" s="7">
-        <f>Sheet!F7</f>
+      <c r="H6" s="14">
+        <f>data!F7</f>
         <v>1.265455689849351E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8">
-        <f>Sheet!D8</f>
-        <v>0.34964724713083711</v>
-      </c>
-      <c r="F7" s="8">
-        <f>Sheet!E8</f>
+        <v>31</v>
+      </c>
+      <c r="D7" s="12">
+        <f>data!D8</f>
+        <v>0.22549294153943289</v>
+      </c>
+      <c r="F7" s="12">
+        <f>data!E8</f>
         <v>0.2193343445211649</v>
       </c>
-      <c r="H7" s="7">
-        <f>Sheet!F8</f>
+      <c r="H7" s="14">
+        <f>data!F8</f>
         <v>8.7572125012681367E-3</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8">
-        <f>Sheet!D9</f>
-        <v>2.4899557079398371</v>
-      </c>
-      <c r="F8" s="8">
-        <f>Sheet!E9</f>
+        <v>32</v>
+      </c>
+      <c r="D8" s="12">
+        <f>data!D9</f>
+        <v>2.4472197770404578</v>
+      </c>
+      <c r="F8" s="12">
+        <f>data!E9</f>
         <v>2.5895116155147551</v>
       </c>
-      <c r="H8" s="7">
-        <f>Sheet!F9</f>
+      <c r="H8" s="14">
+        <f>data!F9</f>
         <v>8.2291151971359389E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8">
-        <f>Sheet!D10</f>
-        <v>0.29613999580775707</v>
-      </c>
-      <c r="F9" s="8">
-        <f>Sheet!E10</f>
+        <v>33</v>
+      </c>
+      <c r="D9" s="12">
+        <f>data!D10</f>
+        <v>0.28148177089739251</v>
+      </c>
+      <c r="F9" s="12">
+        <f>data!E10</f>
         <v>0.35119047513604162</v>
       </c>
-      <c r="H9" s="7">
-        <f>Sheet!F10</f>
+      <c r="H9" s="14">
+        <f>data!F10</f>
         <v>1.1930931158587531E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8">
-        <f>Sheet!D11</f>
-        <v>2.448593788699402</v>
-      </c>
-      <c r="F10" s="8">
-        <f>Sheet!E11</f>
+        <v>34</v>
+      </c>
+      <c r="D10" s="12">
+        <f>data!D11</f>
+        <v>2.4451046912321068</v>
+      </c>
+      <c r="F10" s="12">
+        <f>data!E11</f>
         <v>2.4926766369826052</v>
       </c>
-      <c r="H10" s="7">
-        <f>Sheet!F11</f>
+      <c r="H10" s="14">
+        <f>data!F11</f>
         <v>7.9125213215150383E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="8">
-        <f>Sheet!D12</f>
-        <v>2.8155026241421081E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <f>Sheet!E12</f>
-        <v>3.886315165764806E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <f>Sheet!F12</f>
-        <v>4.0453996883931739E-3</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="12">
+        <f>data!D12*100</f>
+        <v>2.2058942268873629</v>
+      </c>
+      <c r="F11" s="12">
+        <f>data!E12*100</f>
+        <v>3.8863151657648061</v>
+      </c>
+      <c r="H11" s="14">
+        <f>data!F12*100</f>
+        <v>0.40453996883931742</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="8">
-        <f>Sheet!D13</f>
-        <v>0.3690512716996367</v>
-      </c>
-      <c r="F12" s="8">
-        <f>Sheet!E13</f>
-        <v>0.28284933936883899</v>
-      </c>
-      <c r="H12" s="7">
-        <f>Sheet!F13</f>
-        <v>1.3104989175409761E-2</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="12">
+        <f>data!D13*100</f>
+        <v>37.433992733144926</v>
+      </c>
+      <c r="F12" s="12">
+        <f>data!E13*100</f>
+        <v>28.284933936883899</v>
+      </c>
+      <c r="H12" s="14">
+        <f>data!F13*100</f>
+        <v>1.310498917540976</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8">
-        <f>Sheet!D14</f>
-        <v>0.33725474364150188</v>
-      </c>
-      <c r="F13" s="8">
-        <f>Sheet!E14</f>
-        <v>0.52858991979791559</v>
-      </c>
-      <c r="H13" s="7">
-        <f>Sheet!F14</f>
-        <v>1.9621698503005141E-2</v>
-      </c>
-      <c r="N13" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="12">
+        <f>data!D14*100</f>
+        <v>36.022607993540568</v>
+      </c>
+      <c r="F13" s="12">
+        <f>data!E14*100</f>
+        <v>52.858991979791561</v>
+      </c>
+      <c r="H13" s="14">
+        <f>data!F14*100</f>
+        <v>1.9621698503005141</v>
+      </c>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8">
-        <f>Sheet!D15</f>
-        <v>0.24553895841744039</v>
-      </c>
-      <c r="F14" s="8">
-        <f>Sheet!E15</f>
-        <v>0.14869758917559719</v>
-      </c>
-      <c r="H14" s="7">
-        <f>Sheet!F15</f>
-        <v>8.4353439371968562E-3</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="12">
+        <f>data!D15*100</f>
+        <v>22.337505046427133</v>
+      </c>
+      <c r="F14" s="12">
+        <f>data!E15*100</f>
+        <v>14.86975891755972</v>
+      </c>
+      <c r="H14" s="14">
+        <f>data!F15*100</f>
+        <v>0.84353439371968564</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8">
-        <f>Sheet!D16</f>
-        <v>0.2397111377781688</v>
-      </c>
-      <c r="F15" s="8">
-        <f>Sheet!E16</f>
+        <v>39</v>
+      </c>
+      <c r="D15" s="12">
+        <f>data!D16</f>
+        <v>0.25466100380387252</v>
+      </c>
+      <c r="F15" s="12">
+        <f>data!E16</f>
         <v>0.2381999729142856</v>
       </c>
-      <c r="H15" s="7">
-        <f>Sheet!F16</f>
+      <c r="H15" s="14">
+        <f>data!F16</f>
         <v>1.9920635205340299E-2</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8">
-        <f>Sheet!D17</f>
-        <v>0.18784192012263359</v>
-      </c>
-      <c r="F16" s="8">
-        <f>Sheet!E17</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="12">
+        <f>data!D17</f>
+        <v>1.861272579798862E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <f>data!E17</f>
         <v>0.22423460466749259</v>
       </c>
-      <c r="H16" s="7">
-        <f>Sheet!F17</f>
+      <c r="H16" s="14">
+        <f>data!F17</f>
         <v>2.2530282419019481E-2</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="8">
-        <f>Sheet!D18</f>
-        <v>-8.8106382363242423E-3</v>
-      </c>
-      <c r="F17" s="8">
-        <f>Sheet!E18</f>
+        <v>41</v>
+      </c>
+      <c r="D17" s="12">
+        <f>data!D18</f>
+        <v>8.1292229725574115E-3</v>
+      </c>
+      <c r="F17" s="12">
+        <f>data!E18</f>
         <v>-6.5731074170678222E-2</v>
       </c>
-      <c r="H17" s="7">
-        <f>Sheet!F18</f>
+      <c r="H17" s="14">
+        <f>data!F18</f>
         <v>2.0264332076342199E-2</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="8">
-        <f>Sheet!D19</f>
-        <v>3.3363506099960329E-3</v>
-      </c>
-      <c r="F18" s="8">
-        <f>Sheet!E19</f>
+        <v>42</v>
+      </c>
+      <c r="D18" s="12">
+        <f>data!D19</f>
+        <v>-1.77898130278531E-2</v>
+      </c>
+      <c r="F18" s="12">
+        <f>data!E19</f>
         <v>-2.4197713692158999E-2</v>
       </c>
-      <c r="H18" s="7">
-        <f>Sheet!F19</f>
+      <c r="H18" s="14">
+        <f>data!F19</f>
         <v>2.1091935256317512E-2</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8">
-        <f>Sheet!D20</f>
-        <v>0.42617087709338619</v>
-      </c>
-      <c r="F19" s="8">
-        <f>Sheet!E20</f>
-        <v>0.37704974447004391</v>
-      </c>
-      <c r="H19" s="7">
-        <f>Sheet!F20</f>
-        <v>1.446834731903008E-2</v>
+        <v>43</v>
+      </c>
+      <c r="D19" s="12">
+        <f>data!D20*100</f>
+        <v>42.207777462390013</v>
+      </c>
+      <c r="F19" s="12">
+        <f>data!E20*100</f>
+        <v>37.704974447004389</v>
+      </c>
+      <c r="H19" s="14">
+        <f>data!F20*100</f>
+        <v>1.4468347319030079</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11">
-        <f>Sheet!D21</f>
-        <v>5.0558685880444936E-4</v>
-      </c>
-      <c r="F20" s="11">
-        <f>Sheet!E21</f>
-        <v>7.2649373525083064E-4</v>
-      </c>
-      <c r="H20" s="11">
-        <f>Sheet!F21</f>
-        <v>4.265286409533425E-5</v>
+        <v>44</v>
+      </c>
+      <c r="D20" s="12">
+        <f>data!D21*100</f>
+        <v>5.6386909265263033E-2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12">
+        <f>data!E21*100</f>
+        <v>7.2649373525083064E-2</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
+        <f>data!F21*100</f>
+        <v>4.2652864095334246E-3</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8">
-        <f>Sheet!D22</f>
-        <v>0.48752407297189287</v>
-      </c>
-      <c r="F21" s="8">
-        <f>Sheet!E22</f>
+        <v>45</v>
+      </c>
+      <c r="D21" s="12">
+        <f>data!D22</f>
+        <v>0.44372231120593453</v>
+      </c>
+      <c r="F21" s="12">
+        <f>data!E22</f>
         <v>0.41844146425687828</v>
       </c>
-      <c r="H21" s="7">
-        <f>Sheet!F22</f>
+      <c r="H21" s="14">
+        <f>data!F22</f>
         <v>1.9749291827212339E-2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="9">
-        <f>Sheet!D23</f>
-        <v>0.24237616933549119</v>
+      <c r="D22" s="6">
+        <f>data!D23</f>
+        <v>0.21227941372297479</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="9">
-        <f>Sheet!E23</f>
+      <c r="F22" s="6">
+        <f>data!E23</f>
         <v>0.20745770103470851</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="10">
-        <f>Sheet!F23</f>
+      <c r="H22" s="11">
+        <f>data!F23</f>
         <v>1.4332070827030891E-2</v>
       </c>
     </row>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.476491258370779</v>
+        <v>2.469545652167673</v>
       </c>
       <c r="E5" t="n">
         <v>2.473027724742889</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07297996026884278</v>
+        <v>0.0707115266285713</v>
       </c>
       <c r="E6" t="n">
         <v>0.07370234677940607</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3417941787759035</v>
+        <v>-0.3610816495766939</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3557806353867054</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2262684439991096</v>
+        <v>0.2166748852961936</v>
       </c>
       <c r="E8" t="n">
         <v>0.2193343445211649</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.454719481739565</v>
+        <v>2.472840372559594</v>
       </c>
       <c r="E9" t="n">
         <v>2.589511615514755</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2835282793763605</v>
+        <v>0.2886132232229098</v>
       </c>
       <c r="E10" t="n">
         <v>0.3511904751360416</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.445361585867946</v>
+        <v>2.433730285853511</v>
       </c>
       <c r="E11" t="n">
         <v>2.492676636982605</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.02204279370205894</v>
+        <v>0.01801372628179249</v>
       </c>
       <c r="E12" t="n">
         <v>0.03886315165764806</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3709487283003633</v>
+        <v>0.3368671780379491</v>
       </c>
       <c r="E13" t="n">
         <v>0.282849339368839</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3613484053290271</v>
+        <v>0.3687202260799354</v>
       </c>
       <c r="E14" t="n">
         <v>0.5285899197979156</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2256600726685506</v>
+        <v>0.256398869600323</v>
       </c>
       <c r="E15" t="n">
         <v>0.1486975891755972</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2362069704323806</v>
+        <v>0.215621245755459</v>
       </c>
       <c r="E16" t="n">
         <v>0.2381999729142856</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0580429263785073</v>
+        <v>0.1398250041155577</v>
       </c>
       <c r="E17" t="n">
         <v>0.2242346046674926</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.01610557088551836</v>
+        <v>-0.01753936205462238</v>
       </c>
       <c r="E18" t="n">
         <v>-0.06573107417067822</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.01576830739016967</v>
+        <v>0.003338890064221986</v>
       </c>
       <c r="E19" t="n">
         <v>-0.024197713692159</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4236162361623617</v>
+        <v>0.4428044280442804</v>
       </c>
       <c r="E20" t="n">
         <v>0.3770497444700439</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0005606763686672347</v>
+        <v>0.0005665001879956587</v>
       </c>
       <c r="E21" t="n">
         <v>0.0007264937352508306</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4768307219455711</v>
+        <v>0.4818836742598442</v>
       </c>
       <c r="E22" t="n">
         <v>0.4184414642568783</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.203601034335619</v>
+        <v>0.2404175451765602</v>
       </c>
       <c r="E23" t="n">
         <v>0.2074577010347085</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.469545652167673</v>
+        <v>2.467451679673827</v>
       </c>
       <c r="E5" t="n">
         <v>2.473027724742889</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0707115266285713</v>
+        <v>0.0718444454608647</v>
       </c>
       <c r="E6" t="n">
         <v>0.07370234677940607</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3610816495766939</v>
+        <v>-0.364738004855809</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3557806353867054</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2166748852961936</v>
+        <v>0.2165088495496961</v>
       </c>
       <c r="E8" t="n">
         <v>0.2193343445211649</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.472840372559594</v>
+        <v>2.471055733302607</v>
       </c>
       <c r="E9" t="n">
         <v>2.589511615514755</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2886132232229098</v>
+        <v>0.2870360540930463</v>
       </c>
       <c r="E10" t="n">
         <v>0.3511904751360416</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.433730285853511</v>
+        <v>2.429455268249141</v>
       </c>
       <c r="E11" t="n">
         <v>2.492676636982605</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01801372628179249</v>
+        <v>0.01868389180460234</v>
       </c>
       <c r="E12" t="n">
         <v>0.03886315165764806</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3368671780379491</v>
+        <v>0.335123132821962</v>
       </c>
       <c r="E13" t="n">
         <v>0.282849339368839</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3687202260799354</v>
+        <v>0.3682034719418651</v>
       </c>
       <c r="E14" t="n">
         <v>0.5285899197979156</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.256398869600323</v>
+        <v>0.2579895034315705</v>
       </c>
       <c r="E15" t="n">
         <v>0.1486975891755972</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.215621245755459</v>
+        <v>0.2138775122646704</v>
       </c>
       <c r="E16" t="n">
         <v>0.2381999729142856</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1398250041155577</v>
+        <v>0.1407421091689736</v>
       </c>
       <c r="E17" t="n">
         <v>0.2242346046674926</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.01753936205462238</v>
+        <v>-0.0190522757485441</v>
       </c>
       <c r="E18" t="n">
         <v>-0.06573107417067822</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.003338890064221986</v>
+        <v>0.003037414876917322</v>
       </c>
       <c r="E19" t="n">
         <v>-0.024197713692159</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4428044280442804</v>
+        <v>0.446931592392847</v>
       </c>
       <c r="E20" t="n">
         <v>0.3770497444700439</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0005665001879956587</v>
+        <v>0.0005805021473523686</v>
       </c>
       <c r="E21" t="n">
         <v>0.0007264937352508306</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4818836742598442</v>
+        <v>0.4803335497809778</v>
       </c>
       <c r="E22" t="n">
         <v>0.4184414642568783</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2404175451765602</v>
+        <v>0.2416594240755823</v>
       </c>
       <c r="E23" t="n">
         <v>0.2074577010347085</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.467451679673827</v>
+        <v>2.485535850014337</v>
       </c>
       <c r="E5" t="n">
         <v>2.473027724742889</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0718444454608647</v>
+        <v>0.07175346706947595</v>
       </c>
       <c r="E6" t="n">
         <v>0.07370234677940607</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.364738004855809</v>
+        <v>-0.2569518751681636</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3557806353867054</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2165088495496961</v>
+        <v>0.2463665638042128</v>
       </c>
       <c r="E8" t="n">
         <v>0.2193343445211649</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.471055733302607</v>
+        <v>2.482289296325269</v>
       </c>
       <c r="E9" t="n">
         <v>2.589511615514755</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2870360540930463</v>
+        <v>0.2846642908342636</v>
       </c>
       <c r="E10" t="n">
         <v>0.3511904751360416</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.429455268249141</v>
+        <v>2.454420695467284</v>
       </c>
       <c r="E11" t="n">
         <v>2.492676636982605</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.446931592392847</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0.3770497444700439</v>
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0005805021473523686</v>
+        <v>0.6261929753734357</v>
       </c>
       <c r="E21" t="n">
         <v>0.0007264937352508306</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4803335497809778</v>
+        <v>0.4671769704044489</v>
       </c>
       <c r="E22" t="n">
         <v>0.4184414642568783</v>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2416594240755823</v>
+        <v>0.1929157180451532</v>
       </c>
       <c r="E23" t="n">
         <v>0.2074577010347085</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -429,8 +429,8 @@
   </sheetPr>
   <dimension ref="C4:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.485535850014337</v>
+        <v>2.486743561837384</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473027724742889</v>
+        <v>2.473010797023773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0783269219270539</v>
+        <v>0.07832692683838968</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07175346706947595</v>
+        <v>0.07191216137102167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07370234677940607</v>
+        <v>0.0737045496404171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002793042666449589</v>
+        <v>0.002791894768823342</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2569518751681636</v>
+        <v>-0.1763006811907082</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3557806353867054</v>
+        <v>-0.3557592459619045</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01265455689849351</v>
+        <v>0.01269640106306268</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2463665638042128</v>
+        <v>0.3869429884421218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2193343445211649</v>
+        <v>0.2193040450364351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008757212501268137</v>
+        <v>0.008640766787331089</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.482289296325269</v>
+        <v>2.500736553924154</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589511615514755</v>
+        <v>2.58952593588829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08229115197135939</v>
+        <v>0.08228883058330325</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2846642908342636</v>
+        <v>0.2858268679925717</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3511904751360416</v>
+        <v>0.3511869743466377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01193093115858753</v>
+        <v>0.01197301821384926</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.454420695467284</v>
+        <v>2.464477557672385</v>
       </c>
       <c r="E11" t="n">
-        <v>2.492676636982605</v>
+        <v>2.492690888904214</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07912521321515038</v>
+        <v>0.07911715410396938</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01868389180460234</v>
+        <v>0.01881308033911991</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03886315165764806</v>
+        <v>0.0388672060009751</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004045399688393174</v>
+        <v>0.004052441122115701</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.335123132821962</v>
+        <v>0.3297214372224465</v>
       </c>
       <c r="E13" t="n">
-        <v>0.282849339368839</v>
+        <v>0.282855486013866</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01310498917540976</v>
+        <v>0.01284582756155296</v>
       </c>
       <c r="G13" t="n">
         <v>0.2</v>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3682034719418651</v>
+        <v>0.3625353249899071</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5285899197979156</v>
+        <v>0.5285845146094897</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01962169850300514</v>
+        <v>0.01950110813856742</v>
       </c>
       <c r="G14" t="n">
         <v>-0.01</v>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2579895034315705</v>
+        <v>0.2689301574485264</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1486975891755972</v>
+        <v>0.1486927933756691</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008435343937196856</v>
+        <v>0.008571077048086666</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2138775122646704</v>
+        <v>0.2674542752462063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2381999729142856</v>
+        <v>0.2381824513994524</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0199206352053403</v>
+        <v>0.0193161450629829</v>
       </c>
       <c r="G16" t="n">
         <v>0.7</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1407421091689736</v>
+        <v>0.1763744298772759</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2242346046674926</v>
+        <v>0.2242545439751264</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02253028241901948</v>
+        <v>0.02157942660681845</v>
       </c>
       <c r="G17" t="n">
         <v>-0.4</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.0190522757485441</v>
+        <v>-0.0125117225943009</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06573107417067822</v>
+        <v>-0.06574915627640092</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0202643320763422</v>
+        <v>0.02065201320820884</v>
       </c>
       <c r="G18" t="n">
         <v>0.3</v>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.003037414876917322</v>
+        <v>-0.003802775894403772</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.024197713692159</v>
+        <v>-0.02422105296519655</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02109193525631751</v>
+        <v>0.0203809442777414</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3770497444700439</v>
+        <v>0.3770313102118873</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01446834731903008</v>
+        <v>0.01442944072430714</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6261929753734357</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007264937352508306</v>
+        <v>0.585378801634811</v>
       </c>
       <c r="F21" t="n">
-        <v>4.265286409533425e-05</v>
+        <v>0.02020568064632542</v>
       </c>
       <c r="G21" t="n">
         <v>-0.1</v>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4671769704044489</v>
+        <v>0.4657037156153698</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4184414642568783</v>
+        <v>0.4184576788780685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01974929182721234</v>
+        <v>0.01973609522177048</v>
       </c>
       <c r="G22" t="n">
         <v>-0.2</v>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1929157180451532</v>
+        <v>0.1967505437285323</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2074577010347085</v>
+        <v>0.2073579741848141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01433207082703089</v>
+        <v>0.01427416787326762</v>
       </c>
       <c r="G23" t="n">
         <v>0.8</v>
@@ -1036,10 +1036,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H22"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1231,7 +1231,7 @@
         <v/>
       </c>
       <c r="F11" s="12">
-        <f>data!E12*100</f>
+        <f>data!E12</f>
         <v/>
       </c>
       <c r="H11" s="14">
@@ -1250,7 +1250,7 @@
         <v/>
       </c>
       <c r="F12" s="12">
-        <f>data!E13*100</f>
+        <f>data!E13</f>
         <v/>
       </c>
       <c r="H12" s="14">
@@ -1269,7 +1269,7 @@
         <v/>
       </c>
       <c r="F13" s="12">
-        <f>data!E14*100</f>
+        <f>data!E14</f>
         <v/>
       </c>
       <c r="H13" s="14">
@@ -1289,7 +1289,7 @@
         <v/>
       </c>
       <c r="F14" s="12">
-        <f>data!E15*100</f>
+        <f>data!E15</f>
         <v/>
       </c>
       <c r="H14" s="14">
@@ -1384,7 +1384,7 @@
         <v/>
       </c>
       <c r="F19" s="12">
-        <f>data!E20*100</f>
+        <f>data!E20</f>
         <v/>
       </c>
       <c r="H19" s="14">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="E20" s="15" t="n"/>
       <c r="F20" s="12">
-        <f>data!E21*100</f>
+        <f>data!E21</f>
         <v/>
       </c>
       <c r="G20" s="15" t="n"/>
@@ -1453,6 +1453,9 @@
         <f>data!F23</f>
         <v/>
       </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -427,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:J24"/>
+  <dimension ref="C4:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J20" sqref="C20:J20"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.486743561837384</v>
+        <v>2.439958992473283</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473010797023773</v>
+        <v>2.473020242929459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07832692683838968</v>
+        <v>0.07832261502918832</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07191216137102167</v>
+        <v>0.06927355064914854</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0737045496404171</v>
+        <v>0.07376992758363485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002791894768823342</v>
+        <v>0.002756964555481807</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1763006811907082</v>
+        <v>-0.4475215708873302</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3557592459619045</v>
+        <v>-0.3552965564727783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01269640106306268</v>
+        <v>0.01283204546441114</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3869429884421218</v>
+        <v>0.1367171574465806</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2193040450364351</v>
+        <v>0.2189719285666943</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008640766787331089</v>
+        <v>0.008714648232788468</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.500736553924154</v>
+        <v>2.464592548098875</v>
       </c>
       <c r="E9" t="n">
-        <v>2.58952593588829</v>
+        <v>2.589592592477798</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08228883058330325</v>
+        <v>0.08230323421738787</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -620,13 +620,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2858268679925717</v>
+        <v>0.2942513028456653</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3511869743466377</v>
+        <v>0.3511381005048752</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01197301821384926</v>
+        <v>0.01203229253374716</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.464477557672385</v>
+        <v>2.418578590891703</v>
       </c>
       <c r="E11" t="n">
-        <v>2.492690888904214</v>
+        <v>2.492724134556088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07911715410396938</v>
+        <v>0.07914624579444615</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -678,13 +678,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.01881308033911991</v>
+        <v>0.02549858700040371</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0388672060009751</v>
+        <v>0.03895805112074458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004052441122115701</v>
+        <v>0.004028269770326015</v>
       </c>
       <c r="G12" t="n">
         <v>0.1</v>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3297214372224465</v>
+        <v>0.3776907549454986</v>
       </c>
       <c r="E13" t="n">
-        <v>0.282855486013866</v>
+        <v>0.2825256499751223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01284582756155296</v>
+        <v>0.01278570880286808</v>
       </c>
       <c r="G13" t="n">
         <v>0.2</v>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3625353249899071</v>
+        <v>0.3479127977392007</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5285845146094897</v>
+        <v>0.5282867442094009</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01950110813856742</v>
+        <v>0.01946973085298174</v>
       </c>
       <c r="G14" t="n">
         <v>-0.01</v>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2689301574485264</v>
+        <v>0.2288978603148971</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1486927933756691</v>
+        <v>0.1492295546947322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008571077048086666</v>
+        <v>0.008675134419246397</v>
       </c>
       <c r="G15" t="n">
         <v>0.1</v>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2674542752462063</v>
+        <v>0.1569736613206976</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2381824513994524</v>
+        <v>0.2381830824043836</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0193161450629829</v>
+        <v>0.01986858011483212</v>
       </c>
       <c r="G16" t="n">
         <v>0.7</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1763744298772759</v>
+        <v>0.1666339721265211</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2242545439751264</v>
+        <v>0.2232180179692148</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02157942660681845</v>
+        <v>0.02229085519208141</v>
       </c>
       <c r="G17" t="n">
         <v>-0.4</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.0125117225943009</v>
+        <v>-0.0002070351378107086</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06574915627640092</v>
+        <v>-0.06485860670546678</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02065201320820884</v>
+        <v>0.01981038070346321</v>
       </c>
       <c r="G18" t="n">
         <v>0.3</v>
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.003802775894403772</v>
+        <v>-0.002116344328242216</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02422105296519655</v>
+        <v>-0.02306611005363123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0203809442777414</v>
+        <v>0.02042360966074426</v>
       </c>
       <c r="G19" t="n">
         <v>0.9</v>
@@ -909,27 +909,11 @@
           <t>\% Intermediate control</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.3770313102118873</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.01442944072430714</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>15</v>
-      </c>
-      <c r="I20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <f>(D20-E20)^2/F20^2</f>
-        <v/>
+      <c r="I20" s="3" t="n"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELIMINADO</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -939,13 +923,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.4730797615668464</v>
       </c>
       <c r="E21" t="n">
-        <v>0.585378801634811</v>
+        <v>0.5851949692469636</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02020568064632542</v>
+        <v>0.02042369864481303</v>
       </c>
       <c r="G21" t="n">
         <v>-0.1</v>
@@ -968,13 +952,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4657037156153698</v>
+        <v>0.4943662863465367</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4184576788780685</v>
+        <v>0.4185176715820618</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01973609522177048</v>
+        <v>0.01967542804872869</v>
       </c>
       <c r="G22" t="n">
         <v>-0.2</v>
@@ -997,13 +981,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1967505437285323</v>
+        <v>0.247284977019973</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2073579741848141</v>
+        <v>0.2080090161961711</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01427416787326762</v>
+        <v>0.01423183394444534</v>
       </c>
       <c r="G23" t="n">
         <v>0.8</v>
@@ -1036,10 +1020,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1250,7 +1234,7 @@
         <v/>
       </c>
       <c r="F12" s="12">
-        <f>data!E13</f>
+        <f>data!E13*100</f>
         <v/>
       </c>
       <c r="H12" s="14">
@@ -1269,7 +1253,7 @@
         <v/>
       </c>
       <c r="F13" s="12">
-        <f>data!E14</f>
+        <f>data!E14*100</f>
         <v/>
       </c>
       <c r="H13" s="14">
@@ -1289,7 +1273,7 @@
         <v/>
       </c>
       <c r="F14" s="12">
-        <f>data!E15</f>
+        <f>data!E15*100</f>
         <v/>
       </c>
       <c r="H14" s="14">
@@ -1376,86 +1360,67 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>% intermediate (control group)</t>
+          <t>% advanced/expert (control group)</t>
         </is>
       </c>
       <c r="D19" s="12">
-        <f>data!D20*100</f>
-        <v/>
-      </c>
+        <f>data!D21*100</f>
+        <v/>
+      </c>
+      <c r="E19" s="15" t="n"/>
       <c r="F19" s="12">
-        <f>data!E20</f>
-        <v/>
-      </c>
+        <f>data!E21*100</f>
+        <v/>
+      </c>
+      <c r="G19" s="15" t="n"/>
       <c r="H19" s="14">
-        <f>data!F20*100</f>
+        <f>data!F21*100</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>% advanced/expert (control group)</t>
+          <t>corr(STEI, past test scores)</t>
         </is>
       </c>
       <c r="D20" s="12">
-        <f>data!D21*100</f>
-        <v/>
-      </c>
-      <c r="E20" s="15" t="n"/>
+        <f>data!D22</f>
+        <v/>
+      </c>
       <c r="F20" s="12">
-        <f>data!E21</f>
-        <v/>
-      </c>
-      <c r="G20" s="15" t="n"/>
+        <f>data!E22</f>
+        <v/>
+      </c>
       <c r="H20" s="14">
-        <f>data!F21*100</f>
+        <f>data!F22</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>corr(STEI, past test scores)</t>
-        </is>
-      </c>
-      <c r="D21" s="12">
-        <f>data!D22</f>
-        <v/>
-      </c>
-      <c r="F21" s="12">
-        <f>data!E22</f>
-        <v/>
-      </c>
-      <c r="H21" s="14">
-        <f>data!F22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>corr(Portfolio,past test scores)</t>
         </is>
       </c>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="6">
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="6">
         <f>data!D23</f>
         <v/>
       </c>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="6">
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6">
         <f>data!E23</f>
         <v/>
       </c>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="11">
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="11">
         <f>data!F23</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="F24" s="12" t="n"/>
+    <row r="23">
+      <c r="F23" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.439958992473283</v>
+        <v>2.496985546467907</v>
       </c>
       <c r="E5" t="n">
         <v>2.473020242929459</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06927355064914854</v>
+        <v>0.07635665951707242</v>
       </c>
       <c r="E6" t="n">
         <v>0.07376992758363485</v>
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.4475215708873302</v>
+        <v>-0.002535233822187239</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3552965564727783</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1367171574465806</v>
+        <v>0.5400231511551582</v>
       </c>
       <c r="E8" t="n">
         <v>0.2189719285666943</v>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.464592548098875</v>
+        <v>2.533663549832727</v>
       </c>
       <c r="E9" t="n">
         <v>2.589592592477798</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2942513028456653</v>
+        <v>0.3030152403641788</v>
       </c>
       <c r="E10" t="n">
         <v>0.3511381005048752</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.418578590891703</v>
+        <v>2.417443432035182</v>
       </c>
       <c r="E11" t="n">
         <v>2.492724134556088</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.02549858700040371</v>
+        <v>0.006475575292692774</v>
       </c>
       <c r="E12" t="n">
         <v>0.03895805112074458</v>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3776907549454986</v>
+        <v>0.2025111021396851</v>
       </c>
       <c r="E13" t="n">
         <v>0.2825256499751223</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3479127977392007</v>
+        <v>0.3792894630601535</v>
       </c>
       <c r="E14" t="n">
         <v>0.5282867442094009</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2288978603148971</v>
+        <v>0.3917238595074686</v>
       </c>
       <c r="E15" t="n">
         <v>0.1492295546947322</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1569736613206976</v>
+        <v>0.03537009864606364</v>
       </c>
       <c r="E16" t="n">
         <v>0.2381830824043836</v>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1666339721265211</v>
+        <v>0.01064639444370955</v>
       </c>
       <c r="E17" t="n">
         <v>0.2232180179692148</v>
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.0002070351378107086</v>
+        <v>-0.06424314580939124</v>
       </c>
       <c r="E18" t="n">
         <v>-0.06485860670546678</v>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.002116344328242216</v>
+        <v>-0.02792184497684371</v>
       </c>
       <c r="E19" t="n">
         <v>-0.02306611005363123</v>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.4730797615668464</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0.5851949692469636</v>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4943662863465367</v>
+        <v>0.5067639732573387</v>
       </c>
       <c r="E22" t="n">
         <v>0.4185176715820618</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.247284977019973</v>
+        <v>0.2651495670929225</v>
       </c>
       <c r="E23" t="n">
         <v>0.2080090161961711</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -135,6 +135,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,7 +543,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.496985546467907</v>
+        <v>2.497034587704941</v>
       </c>
       <c r="E5" t="n">
         <v>2.473020242929459</v>
@@ -504,7 +572,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07635665951707242</v>
+        <v>0.07636058327964335</v>
       </c>
       <c r="E6" t="n">
         <v>0.07376992758363485</v>
@@ -533,7 +601,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.002535233822187239</v>
+        <v>-0.002204408517441222</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3552965564727783</v>
@@ -562,7 +630,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5400231511551582</v>
+        <v>0.5403622751073206</v>
       </c>
       <c r="E8" t="n">
         <v>0.2189719285666943</v>
@@ -591,7 +659,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.533663549832727</v>
+        <v>2.533702817369459</v>
       </c>
       <c r="E9" t="n">
         <v>2.589592592477798</v>
@@ -620,7 +688,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3030152403641788</v>
+        <v>0.3030300967266508</v>
       </c>
       <c r="E10" t="n">
         <v>0.3511381005048752</v>
@@ -678,7 +746,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.006475575292692774</v>
+        <v>0.006459426725878078</v>
       </c>
       <c r="E12" t="n">
         <v>0.03895805112074458</v>
@@ -707,7 +775,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.2025111021396851</v>
+        <v>0.2024061364553896</v>
       </c>
       <c r="E13" t="n">
         <v>0.2825256499751223</v>
@@ -736,7 +804,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3792894630601535</v>
+        <v>0.3792894630601534</v>
       </c>
       <c r="E14" t="n">
         <v>0.5282867442094009</v>
@@ -765,7 +833,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3917238595074686</v>
+        <v>0.3918449737585789</v>
       </c>
       <c r="E15" t="n">
         <v>0.1492295546947322</v>
@@ -794,7 +862,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.03537009864606364</v>
+        <v>0.03425603266175882</v>
       </c>
       <c r="E16" t="n">
         <v>0.2381830824043836</v>
@@ -823,7 +891,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01064639444370955</v>
+        <v>0.01089216463377334</v>
       </c>
       <c r="E17" t="n">
         <v>0.2232180179692148</v>
@@ -852,7 +920,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.06424314580939124</v>
+        <v>-0.06392483258971104</v>
       </c>
       <c r="E18" t="n">
         <v>-0.06485860670546678</v>
@@ -881,7 +949,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02792184497684371</v>
+        <v>-0.02781665760572839</v>
       </c>
       <c r="E19" t="n">
         <v>-0.02306611005363123</v>
@@ -952,7 +1020,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5067639732573387</v>
+        <v>0.5067992395108045</v>
       </c>
       <c r="E22" t="n">
         <v>0.4185176715820618</v>
@@ -981,7 +1049,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2651495670929225</v>
+        <v>0.2652590491206642</v>
       </c>
       <c r="E23" t="n">
         <v>0.2080090161961711</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -135,74 +135,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -495,10 +427,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:K24"/>
+  <dimension ref="C4:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -543,13 +475,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.497034587704941</v>
+        <v>2.508168251295661</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473020242929459</v>
+        <v>2.473010797023773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07832261502918832</v>
+        <v>0.07832692683838968</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -572,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07636058327964335</v>
+        <v>0.06527402753624777</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07376992758363485</v>
+        <v>0.0737045496404171</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002756964555481807</v>
+        <v>0.002791894768823342</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -601,13 +533,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.002204408517441222</v>
+        <v>-0.3434792154577076</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3552965564727783</v>
+        <v>-0.3557592459619045</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01283204546441114</v>
+        <v>0.01269640106306268</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -630,13 +562,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5403622751073206</v>
+        <v>0.2197440872033136</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2189719285666943</v>
+        <v>0.2193040450364351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008714648232788468</v>
+        <v>0.008640766787331089</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -659,13 +591,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.533702817369459</v>
+        <v>2.502655331982685</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589592592477798</v>
+        <v>2.58952593588829</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08230323421738787</v>
+        <v>0.08228883058330325</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -688,13 +620,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3030300967266508</v>
+        <v>0.2980097348093692</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3511381005048752</v>
+        <v>0.3511869743466377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01203229253374716</v>
+        <v>0.01197301821384926</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -717,13 +649,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.417443432035182</v>
+        <v>2.48263572126458</v>
       </c>
       <c r="E11" t="n">
-        <v>2.492724134556088</v>
+        <v>2.492690888904214</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07914624579444615</v>
+        <v>0.07911715410396938</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -742,26 +674,26 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>\% Initial</t>
+          <t>\% Intermediate</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.006459426725878078</v>
+        <v>0.3175777149777957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03895805112074458</v>
+        <v>0.282855486013866</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004028269770326015</v>
+        <v>0.01284582756155296</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <f>(D12-E12)^2/F12^2</f>
@@ -771,26 +703,26 @@
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>\% Intermediate</t>
+          <t>\% Advanced</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.2024061364553896</v>
+        <v>0.3827291077916835</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2825256499751223</v>
+        <v>0.5285845146094897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01278570880286808</v>
+        <v>0.01950110813856742</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <f>(D13-E13)^2/F13^2</f>
@@ -800,26 +732,26 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>\% Advanced</t>
+          <t>\% Expert</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3792894630601534</v>
+        <v>0.2669115865966896</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5282867442094009</v>
+        <v>0.1486927933756691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01946973085298174</v>
+        <v>0.008571077048086666</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J14">
         <f>(D14-E14)^2/F14^2</f>
@@ -829,26 +761,26 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>\% Expert</t>
+          <t>corr(Port,Simce)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3918449737585789</v>
+        <v>0.2186654025104735</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1492295546947322</v>
+        <v>0.2381824513994524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008675134419246397</v>
+        <v>0.0193161450629829</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f>(D15-E15)^2/F15^2</f>
@@ -858,26 +790,26 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>corr(Port,Simce)</t>
+          <t>corr(Test,Simce)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.03425603266175882</v>
+        <v>0.08585794588885459</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2381830824043836</v>
+        <v>0.2242545439751264</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01986858011483212</v>
+        <v>0.02157942660681845</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <f>(D16-E16)^2/F16^2</f>
@@ -887,26 +819,26 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>corr(Test,Simce)</t>
+          <t>corr(exp,Port)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01089216463377334</v>
+        <v>-0.07704653619634988</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2232180179692148</v>
+        <v>-0.06574915627640092</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02229085519208141</v>
+        <v>0.02065201320820884</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <f>(D17-E17)^2/F17^2</f>
@@ -916,26 +848,26 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>corr(exp,Port)</t>
+          <t>corr(exp,Test)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.06392483258971104</v>
+        <v>-0.01507304720025013</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06485860670546678</v>
+        <v>-0.02422105296519655</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01981038070346321</v>
+        <v>0.0203809442777414</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J18">
         <f>(D18-E18)^2/F18^2</f>
@@ -945,26 +877,26 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>corr(exp,Test)</t>
+          <t>\% adva/expert control</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02781665760572839</v>
+        <v>0.5705535055350555</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02306611005363123</v>
+        <v>0.585378801634811</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02042360966074426</v>
+        <v>0.02020568064632542</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <f>(D19-E19)^2/F19^2</f>
@@ -974,39 +906,55 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>\% Intermediate control</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="n"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELIMINADO</t>
-        </is>
+          <t>Corr(Port,p)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4739071854638515</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4184576788780685</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01973609522177048</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <f>(D20-E20)^2/F20^2</f>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>\% adva/expert control</t>
+          <t>Corr(Test,p)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.1812997215943727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5851949692469636</v>
+        <v>0.2073579741848141</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02042369864481303</v>
+        <v>0.01427416787326762</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J21">
         <f>(D21-E21)^2/F21^2</f>
@@ -1014,66 +962,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Corr(Test,p)</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5067992395108045</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4185176715820618</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01967542804872869</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="J22">
-        <f>(D22-E22)^2/F22^2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Corr(Port,p)</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2652590491206642</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2080090161961711</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.01423183394444534</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <f>(D23-E23)^2/F23^2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="J24">
-        <f>SUM(J5:J23)</f>
+        <f>SUM(J5:J21)</f>
         <v/>
       </c>
     </row>
@@ -1088,10 +978,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1275,7 +1165,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>% Initial</t>
+          <t>% Intermediate</t>
         </is>
       </c>
       <c r="D11" s="12">
@@ -1283,7 +1173,7 @@
         <v/>
       </c>
       <c r="F11" s="12">
-        <f>data!E12</f>
+        <f>data!E12*100</f>
         <v/>
       </c>
       <c r="H11" s="14">
@@ -1294,7 +1184,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>% Intermediate</t>
+          <t>% Advanced</t>
         </is>
       </c>
       <c r="D12" s="12">
@@ -1309,11 +1199,12 @@
         <f>data!F13*100</f>
         <v/>
       </c>
+      <c r="N12" s="10" t="n"/>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>% Advanced</t>
+          <t>% Expert</t>
         </is>
       </c>
       <c r="D13" s="12">
@@ -1328,31 +1219,30 @@
         <f>data!F14*100</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>% Expert</t>
+          <t>corr(Portfolio,SIMCE)</t>
         </is>
       </c>
       <c r="D14" s="12">
-        <f>data!D15*100</f>
+        <f>data!D15</f>
         <v/>
       </c>
       <c r="F14" s="12">
-        <f>data!E15*100</f>
+        <f>data!E15</f>
         <v/>
       </c>
       <c r="H14" s="14">
-        <f>data!F15*100</f>
+        <f>data!F15</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>corr(Portfolio,SIMCE)</t>
+          <t>corr(STEI,Simce)</t>
         </is>
       </c>
       <c r="D15" s="12">
@@ -1371,7 +1261,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>corr(STEI,Simce)</t>
+          <t>corr(experience,Portfolio)</t>
         </is>
       </c>
       <c r="D16" s="12">
@@ -1390,7 +1280,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>corr(experience,Portfolio)</t>
+          <t>corr(experience,STEI)</t>
         </is>
       </c>
       <c r="D17" s="12">
@@ -1409,86 +1299,67 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>corr(experience,STEI)</t>
+          <t>% advanced/expert (control group)</t>
         </is>
       </c>
       <c r="D18" s="12">
-        <f>data!D19</f>
-        <v/>
-      </c>
+        <f>data!D19*100</f>
+        <v/>
+      </c>
+      <c r="E18" s="15" t="n"/>
       <c r="F18" s="12">
-        <f>data!E19</f>
-        <v/>
-      </c>
+        <f>data!E19*100</f>
+        <v/>
+      </c>
+      <c r="G18" s="15" t="n"/>
       <c r="H18" s="14">
-        <f>data!F19</f>
+        <f>data!F19*100</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>% advanced/expert (control group)</t>
+          <t>corr(STEI, past test scores)</t>
         </is>
       </c>
       <c r="D19" s="12">
-        <f>data!D21*100</f>
-        <v/>
-      </c>
-      <c r="E19" s="15" t="n"/>
+        <f>data!D20</f>
+        <v/>
+      </c>
       <c r="F19" s="12">
-        <f>data!E21*100</f>
-        <v/>
-      </c>
-      <c r="G19" s="15" t="n"/>
+        <f>data!E20</f>
+        <v/>
+      </c>
       <c r="H19" s="14">
-        <f>data!F21*100</f>
+        <f>data!F20</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>corr(STEI, past test scores)</t>
-        </is>
-      </c>
-      <c r="D20" s="12">
-        <f>data!D22</f>
-        <v/>
-      </c>
-      <c r="F20" s="12">
-        <f>data!E22</f>
-        <v/>
-      </c>
-      <c r="H20" s="14">
-        <f>data!F22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>corr(Portfolio,past test scores)</t>
         </is>
       </c>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="6">
-        <f>data!D23</f>
-        <v/>
-      </c>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="6">
-        <f>data!E23</f>
-        <v/>
-      </c>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="11">
-        <f>data!F23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" s="12" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="6">
+        <f>data!D21</f>
+        <v/>
+      </c>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="6">
+        <f>data!E21</f>
+        <v/>
+      </c>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="11">
+        <f>data!F21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -135,6 +135,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,16 +497,16 @@
   </sheetPr>
   <dimension ref="C4:J22"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.83203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -475,13 +543,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.480618604904591</v>
+        <v>2.487068786469936</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473251601219177</v>
+        <v>2.473205427646637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07832977598362488</v>
+        <v>0.07833023325487293</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -504,13 +572,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06907831992321252</v>
+        <v>0.07092175855612669</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07367939411103726</v>
+        <v>0.0736510165631771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002793883534186472</v>
+        <v>0.00278134240563131</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -533,13 +601,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3577856704614038</v>
+        <v>-0.3514618082806427</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3554196104407311</v>
+        <v>-0.3556503586471081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01278419415588147</v>
+        <v>0.01277362488190663</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -562,13 +630,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2190384564910137</v>
+        <v>0.2262180919292995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2190150516182184</v>
+        <v>0.2194834295511246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008883640773031677</v>
+        <v>0.008760847900946037</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -591,13 +659,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.515876098948043</v>
+        <v>2.497103225123148</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589547255039215</v>
+        <v>2.589686144113541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08227430063080438</v>
+        <v>0.08227361025511878</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -620,13 +688,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2972348824164643</v>
+        <v>0.2835457032234473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3509424172639847</v>
+        <v>0.3512575879693031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01195764928236412</v>
+        <v>0.01197980863363646</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -649,13 +717,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.511336319194604</v>
+        <v>2.512711357442917</v>
       </c>
       <c r="E11" t="n">
-        <v>2.492943937134813</v>
+        <v>2.492827641489762</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07914156173483784</v>
+        <v>0.07910673899493473</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -678,13 +746,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3525151392813888</v>
+        <v>0.3673072264836496</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2823318879183887</v>
+        <v>0.2823352706700801</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01268640720854312</v>
+        <v>0.0126826903942877</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -707,13 +775,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3794025030278563</v>
+        <v>0.38225272507065</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5291036258533893</v>
+        <v>0.5282260225785356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0195546742868903</v>
+        <v>0.01948837341497749</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -736,13 +804,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2119337908760598</v>
+        <v>0.1943076301978199</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1484629044576237</v>
+        <v>0.149058450399161</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008513312991196054</v>
+        <v>0.008673510417609305</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -765,13 +833,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2210873539858434</v>
+        <v>0.2030971319887246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.238615814854239</v>
+        <v>0.2388526880499385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02036156480824162</v>
+        <v>0.01994346767187004</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -794,13 +862,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1227721630493803</v>
+        <v>0.01049081173921547</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2254091537558807</v>
+        <v>0.22419319888022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02239798478128225</v>
+        <v>0.02190130316532154</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -823,13 +891,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.06783238500389437</v>
+        <v>-0.09849709604869172</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06566560659250771</v>
+        <v>-0.06540378725536067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02055594367468444</v>
+        <v>0.0209973996160298</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -852,13 +920,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.01225346804521605</v>
+        <v>-0.02548500690743938</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02403893732747784</v>
+        <v>-0.02392661882078389</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02126848253006702</v>
+        <v>0.02055319469374744</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -881,13 +949,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6116151007663923</v>
+        <v>0.621589554357082</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5855068210777109</v>
+        <v>0.585264909228308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02032734468579753</v>
+        <v>0.02026942824165394</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -910,13 +978,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.420825558857633</v>
+        <v>0.4520176632526393</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4177753439486565</v>
+        <v>0.4185593185121093</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02032840360623617</v>
+        <v>0.01952905771914442</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -939,13 +1007,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1986084116296987</v>
+        <v>0.2340579754203605</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2067630545367086</v>
+        <v>0.208091256202629</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01444499380364669</v>
+        <v>0.0143357113310673</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -962,6 +1030,20 @@
       </c>
     </row>
     <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Corr(Simce,Exp)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.004738502304350046</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.006995364946533139</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02119645947542285</v>
+      </c>
       <c r="J22">
         <f>SUM(J5:J21)</f>
         <v/>
@@ -980,19 +1062,19 @@
   </sheetPr>
   <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="144" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col width="37.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="2.83203125" customWidth="1" min="3" max="3"/>
-    <col width="11.1640625" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="2.83203125" customWidth="1" style="13" min="5" max="5"/>
-    <col width="11.1640625" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
-    <col width="2.83203125" customWidth="1" style="13" min="7" max="7"/>
-    <col width="10.83203125" customWidth="1" style="13" min="8" max="8"/>
+    <col width="37.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="2.77734375" customWidth="1" min="3" max="3"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="2.77734375" customWidth="1" style="13" min="5" max="5"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
+    <col width="2.77734375" customWidth="1" style="13" min="7" max="7"/>
+    <col width="10.77734375" customWidth="1" style="13" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="2">

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -118,6 +118,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -127,82 +131,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -495,18 +429,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:J22"/>
+  <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="21.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="11.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21.83203125" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -543,7 +477,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.487068786469936</v>
+        <v>2.473080877566929</v>
       </c>
       <c r="E5" t="n">
         <v>2.473205427646637</v>
@@ -572,7 +506,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07092175855612669</v>
+        <v>0.07089260008814578</v>
       </c>
       <c r="E6" t="n">
         <v>0.0736510165631771</v>
@@ -601,7 +535,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3514618082806427</v>
+        <v>-0.4303515706337896</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3556503586471081</v>
@@ -630,7 +564,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2262180919292995</v>
+        <v>0.2531835998636042</v>
       </c>
       <c r="E8" t="n">
         <v>0.2194834295511246</v>
@@ -659,7 +593,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.497103225123148</v>
+        <v>2.584361381911414</v>
       </c>
       <c r="E9" t="n">
         <v>2.589686144113541</v>
@@ -688,7 +622,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2835457032234473</v>
+        <v>0.2897028536153853</v>
       </c>
       <c r="E10" t="n">
         <v>0.3512575879693031</v>
@@ -717,7 +651,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.512711357442917</v>
+        <v>2.549817094759991</v>
       </c>
       <c r="E11" t="n">
         <v>2.492827641489762</v>
@@ -746,7 +680,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3673072264836496</v>
+        <v>0.3488171174808235</v>
       </c>
       <c r="E12" t="n">
         <v>0.2823352706700801</v>
@@ -775,7 +709,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.38225272507065</v>
+        <v>0.3750827614049252</v>
       </c>
       <c r="E13" t="n">
         <v>0.5282260225785356</v>
@@ -804,7 +738,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1943076301978199</v>
+        <v>0.2160113039967703</v>
       </c>
       <c r="E14" t="n">
         <v>0.149058450399161</v>
@@ -833,7 +767,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2030971319887246</v>
+        <v>0.08046532556029756</v>
       </c>
       <c r="E15" t="n">
         <v>0.2388526880499385</v>
@@ -862,7 +796,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.01049081173921547</v>
+        <v>0.03514255336468614</v>
       </c>
       <c r="E16" t="n">
         <v>0.22419319888022</v>
@@ -891,7 +825,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.09849709604869172</v>
+        <v>-0.12658406026969</v>
       </c>
       <c r="E17" t="n">
         <v>-0.06540378725536067</v>
@@ -920,7 +854,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.02548500690743938</v>
+        <v>-0.02043483727125512</v>
       </c>
       <c r="E18" t="n">
         <v>-0.02392661882078389</v>
@@ -949,7 +883,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.621589554357082</v>
+        <v>0.6445699687766109</v>
       </c>
       <c r="E19" t="n">
         <v>0.585264909228308</v>
@@ -978,7 +912,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4520176632526393</v>
+        <v>0.4129786342362503</v>
       </c>
       <c r="E20" t="n">
         <v>0.4185593185121093</v>
@@ -1007,7 +941,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2340579754203605</v>
+        <v>0.2116097385582484</v>
       </c>
       <c r="E21" t="n">
         <v>0.208091256202629</v>
@@ -1036,7 +970,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.004738502304350046</v>
+        <v>-0.0764580810336728</v>
       </c>
       <c r="E22" t="n">
         <v>0.006995364946533139</v>
@@ -1045,7 +979,13 @@
         <v>0.02119645947542285</v>
       </c>
       <c r="J22">
-        <f>SUM(J5:J21)</f>
+        <f>(D22-E22)^2/F22^2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="J23">
+        <f>SUM(J5:J22)</f>
         <v/>
       </c>
     </row>
@@ -1060,21 +1000,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="144" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="37.44140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="2.77734375" customWidth="1" min="3" max="3"/>
-    <col width="11.109375" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
-    <col width="2.77734375" customWidth="1" style="13" min="5" max="5"/>
-    <col width="11.109375" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
-    <col width="2.77734375" customWidth="1" style="13" min="7" max="7"/>
-    <col width="10.77734375" customWidth="1" style="13" min="8" max="8"/>
+    <col width="37.5" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
+    <col width="2.83203125" customWidth="1" style="13" min="3" max="3"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
+    <col width="2.83203125" customWidth="1" style="15" min="5" max="5"/>
+    <col width="11.1640625" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="2.83203125" customWidth="1" style="15" min="7" max="7"/>
+    <col width="10.83203125" customWidth="1" style="15" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1110,6 +1050,11 @@
           <t>S.E. data</t>
         </is>
       </c>
+      <c r="J3" s="17" t="inlineStr">
+        <is>
+          <t>Identifica</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -1117,17 +1062,22 @@
           <t>$E(Portfolio)$</t>
         </is>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <f>data!D5</f>
         <v/>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <f>data!E5</f>
         <v/>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="16">
         <f>data!F5</f>
         <v/>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>constant en portfolio</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1136,17 +1086,22 @@
           <t>$Var(Portfolio)$</t>
         </is>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <f>data!D6</f>
         <v/>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <f>data!E6</f>
         <v/>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="16">
         <f>data!F6</f>
         <v/>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Var portfolio</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1155,17 +1110,22 @@
           <t>$E(SIMCE)$</t>
         </is>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <f>data!D7</f>
         <v/>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <f>data!E7</f>
         <v/>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="16">
         <f>data!F7</f>
         <v/>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>constant in simnce</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1174,17 +1134,22 @@
           <t>$VAR(SIMCE)$</t>
         </is>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <f>data!D8</f>
         <v/>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <f>data!E8</f>
         <v/>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="16">
         <f>data!F8</f>
         <v/>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Variance in h</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1193,17 +1158,22 @@
           <t>$E(STEI)$</t>
         </is>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <f>data!D9</f>
         <v/>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <f>data!E9</f>
         <v/>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="16">
         <f>data!F9</f>
         <v/>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>constant in STEI</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1212,17 +1182,22 @@
           <t>$VAR(STEI)$</t>
         </is>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <f>data!D10</f>
         <v/>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="14">
         <f>data!E10</f>
         <v/>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="16">
         <f>data!F10</f>
         <v/>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>variance in STEI</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1231,17 +1206,22 @@
           <t>$E(STEI+Portfolio\mid \text{Control group})/2$</t>
         </is>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <f>data!D11</f>
         <v/>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <f>data!E11</f>
         <v/>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="16">
         <f>data!F11</f>
         <v/>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>utility gain from simce</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1250,17 +1230,22 @@
           <t>% Intermediate</t>
         </is>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <f>data!D12*100</f>
         <v/>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <f>data!E12*100</f>
         <v/>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <f>data!F12*100</f>
         <v/>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Effect of effort type 1 on portfolio</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1269,17 +1254,22 @@
           <t>% Advanced</t>
         </is>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <f>data!D13*100</f>
         <v/>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <f>data!E13*100</f>
         <v/>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="16">
         <f>data!F13*100</f>
         <v/>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>Effect of effort type 2 on portfolio</t>
+        </is>
       </c>
       <c r="N12" s="10" t="n"/>
     </row>
@@ -1289,17 +1279,22 @@
           <t>% Expert</t>
         </is>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <f>data!D14*100</f>
         <v/>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <f>data!E14*100</f>
         <v/>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="16">
         <f>data!F14*100</f>
         <v/>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Utility loss from effort type 1</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1308,17 +1303,22 @@
           <t>corr(Portfolio,SIMCE)</t>
         </is>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <f>data!D15</f>
         <v/>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <f>data!E15</f>
         <v/>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="16">
         <f>data!F15</f>
         <v/>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Effect of portfolio on simce</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1327,121 +1327,183 @@
           <t>corr(STEI,Simce)</t>
         </is>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="14">
         <f>data!D16</f>
         <v/>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <f>data!E16</f>
         <v/>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="16">
         <f>data!F16</f>
         <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Effect of stei on simce</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>corr(experience,Portfolio)</t>
-        </is>
-      </c>
-      <c r="D16" s="12">
-        <f>data!D17</f>
-        <v/>
-      </c>
-      <c r="F16" s="12">
-        <f>data!E17</f>
-        <v/>
-      </c>
-      <c r="H16" s="14">
-        <f>data!F17</f>
-        <v/>
+          <t>corr(experience, SIMCE)</t>
+        </is>
+      </c>
+      <c r="D16" s="14">
+        <f>data!D22</f>
+        <v/>
+      </c>
+      <c r="F16" s="14">
+        <f>data!E22</f>
+        <v/>
+      </c>
+      <c r="H16" s="16">
+        <f>data!F22</f>
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>effect of exp on simce+</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>corr(experience,STEI)</t>
-        </is>
-      </c>
-      <c r="D17" s="12">
-        <f>data!D18</f>
-        <v/>
-      </c>
-      <c r="F17" s="12">
-        <f>data!E18</f>
-        <v/>
-      </c>
-      <c r="H17" s="14">
-        <f>data!F18</f>
-        <v/>
+          <t>corr(experience,Portfolio)</t>
+        </is>
+      </c>
+      <c r="D17" s="14">
+        <f>data!D17</f>
+        <v/>
+      </c>
+      <c r="F17" s="14">
+        <f>data!E17</f>
+        <v/>
+      </c>
+      <c r="H17" s="16">
+        <f>data!F17</f>
+        <v/>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>effect of exp on portfolio</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>% advanced/expert (control group)</t>
-        </is>
-      </c>
-      <c r="D18" s="12">
-        <f>data!D19*100</f>
-        <v/>
-      </c>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="12">
-        <f>data!E19*100</f>
-        <v/>
-      </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="14">
-        <f>data!F19*100</f>
-        <v/>
+          <t>corr(experience,STEI)</t>
+        </is>
+      </c>
+      <c r="D18" s="14">
+        <f>data!D18</f>
+        <v/>
+      </c>
+      <c r="F18" s="14">
+        <f>data!E18</f>
+        <v/>
+      </c>
+      <c r="H18" s="16">
+        <f>data!F18</f>
+        <v/>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>effect of exp on STEI</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
+          <t>% advanced/expert (control group)</t>
+        </is>
+      </c>
+      <c r="D19" s="14">
+        <f>data!D19*100</f>
+        <v/>
+      </c>
+      <c r="E19" s="12" t="n"/>
+      <c r="F19" s="14">
+        <f>data!E19*100</f>
+        <v/>
+      </c>
+      <c r="G19" s="12" t="n"/>
+      <c r="H19" s="16">
+        <f>data!F19*100</f>
+        <v/>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>Utility loss from effort type 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
           <t>corr(STEI, past test scores)</t>
         </is>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="14">
         <f>data!D20</f>
         <v/>
       </c>
-      <c r="F19" s="12">
+      <c r="F20" s="14">
         <f>data!E20</f>
         <v/>
       </c>
-      <c r="H19" s="14">
+      <c r="H20" s="16">
         <f>data!F20</f>
         <v/>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="4" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Effect of p0 on STEI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>corr(Portfolio,past test scores)</t>
         </is>
       </c>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="6">
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="6">
         <f>data!D21</f>
         <v/>
       </c>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="6">
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6">
         <f>data!E21</f>
         <v/>
       </c>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="11">
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="11">
         <f>data!F21</f>
         <v/>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Effect of p0 on Portfolio</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="F22" s="12" t="n"/>
+      <c r="F22" s="14" t="n"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>estos no tienen relacion 1-1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.473080877566929</v>
+        <v>2.490706599329265</v>
       </c>
       <c r="E5" t="n">
         <v>2.473205427646637</v>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07089260008814578</v>
+        <v>0.06892690360037453</v>
       </c>
       <c r="E6" t="n">
         <v>0.0736510165631771</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.4303515706337896</v>
+        <v>-0.3633355102425982</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3556503586471081</v>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2531835998636042</v>
+        <v>0.2290779302062357</v>
       </c>
       <c r="E8" t="n">
         <v>0.2194834295511246</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.584361381911414</v>
+        <v>2.513774459734022</v>
       </c>
       <c r="E9" t="n">
         <v>2.589686144113541</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2897028536153853</v>
+        <v>0.295579317546473</v>
       </c>
       <c r="E10" t="n">
         <v>0.3512575879693031</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.549817094759991</v>
+        <v>2.515486904511018</v>
       </c>
       <c r="E11" t="n">
         <v>2.492827641489762</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3488171174808235</v>
+        <v>0.3455551069842551</v>
       </c>
       <c r="E12" t="n">
         <v>0.2823352706700801</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3750827614049252</v>
+        <v>0.3855308841340331</v>
       </c>
       <c r="E13" t="n">
         <v>0.5282260225785356</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2160113039967703</v>
+        <v>0.2158901897456601</v>
       </c>
       <c r="E14" t="n">
         <v>0.149058450399161</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.08046532556029756</v>
+        <v>0.2375479266643894</v>
       </c>
       <c r="E15" t="n">
         <v>0.2388526880499385</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.03514255336468614</v>
+        <v>0.1209527201462497</v>
       </c>
       <c r="E16" t="n">
         <v>0.22419319888022</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.12658406026969</v>
+        <v>-0.08396974945207074</v>
       </c>
       <c r="E17" t="n">
         <v>-0.06540378725536067</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.02043483727125512</v>
+        <v>-0.01276729934991094</v>
       </c>
       <c r="E18" t="n">
         <v>-0.02392661882078389</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6445699687766109</v>
+        <v>0.6212943514050525</v>
       </c>
       <c r="E19" t="n">
         <v>0.585264909228308</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4129786342362503</v>
+        <v>0.3830234347913151</v>
       </c>
       <c r="E20" t="n">
         <v>0.4185593185121093</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2116097385582484</v>
+        <v>0.1789474868051397</v>
       </c>
       <c r="E21" t="n">
         <v>0.208091256202629</v>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.0764580810336728</v>
+        <v>0.02360350061983014</v>
       </c>
       <c r="E22" t="n">
         <v>0.006995364946533139</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.490706599329265</v>
+        <v>2.471205793740484</v>
       </c>
       <c r="E5" t="n">
         <v>2.473205427646637</v>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06892690360037453</v>
+        <v>0.06871335925147376</v>
       </c>
       <c r="E6" t="n">
         <v>0.0736510165631771</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3633355102425982</v>
+        <v>-0.4023230641462986</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3556503586471081</v>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2290779302062357</v>
+        <v>0.09566701766772445</v>
       </c>
       <c r="E8" t="n">
         <v>0.2194834295511246</v>
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.513774459734022</v>
+        <v>2.45035931757805</v>
       </c>
       <c r="E9" t="n">
         <v>2.589686144113541</v>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.295579317546473</v>
+        <v>0.2911811583879726</v>
       </c>
       <c r="E10" t="n">
         <v>0.3512575879693031</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.515486904511018</v>
+        <v>2.475610245698677</v>
       </c>
       <c r="E11" t="n">
         <v>2.492827641489762</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3455551069842551</v>
+        <v>0.389430763019782</v>
       </c>
       <c r="E12" t="n">
         <v>0.2823352706700801</v>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3855308841340331</v>
+        <v>0.3735002018570852</v>
       </c>
       <c r="E13" t="n">
         <v>0.5282260225785356</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2158901897456601</v>
+        <v>0.178700040371417</v>
       </c>
       <c r="E14" t="n">
         <v>0.149058450399161</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2375479266643894</v>
+        <v>0.3641247559069888</v>
       </c>
       <c r="E15" t="n">
         <v>0.2388526880499385</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1209527201462497</v>
+        <v>0.06189974787140653</v>
       </c>
       <c r="E16" t="n">
         <v>0.22419319888022</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.08396974945207074</v>
+        <v>-0.1046421997387022</v>
       </c>
       <c r="E17" t="n">
         <v>-0.06540378725536067</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.01276729934991094</v>
+        <v>-0.01432397469862057</v>
       </c>
       <c r="E18" t="n">
         <v>-0.02392661882078389</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6212943514050525</v>
+        <v>0.6225887028101049</v>
       </c>
       <c r="E19" t="n">
         <v>0.585264909228308</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3830234347913151</v>
+        <v>0.3868634900551436</v>
       </c>
       <c r="E20" t="n">
         <v>0.4185593185121093</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1789474868051397</v>
+        <v>0.2096526231084588</v>
       </c>
       <c r="E21" t="n">
         <v>0.208091256202629</v>
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.02360350061983014</v>
+        <v>-0.02340715085628979</v>
       </c>
       <c r="E22" t="n">
         <v>0.006995364946533139</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4780" yWindow="500" windowWidth="28800" windowHeight="16300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table_v2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -95,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +133,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,13 +439,13 @@
   </sheetPr>
   <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="21.83203125" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="31" customWidth="1" style="13" min="3" max="3"/>
     <col width="12.6640625" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
     <col width="12.6640625" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
     <col width="11.83203125" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
@@ -477,13 +485,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.471205793740484</v>
+        <v>2.356137804814221</v>
       </c>
       <c r="E5" t="n">
-        <v>2.473205427646637</v>
+        <v>2.581629552841187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07833023325487293</v>
+        <v>0.08183032940787834</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -506,13 +514,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06871335925147376</v>
+        <v>0.06525573625019801</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0736510165631771</v>
+        <v>0.06258531584590674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00278134240563131</v>
+        <v>0.00281639474968377</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -535,13 +543,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.4023230641462986</v>
+        <v>-0.3439002818042596</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3556503586471081</v>
+        <v>-0.3443836978673935</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01277362488190663</v>
+        <v>0.01143701077400334</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -564,13 +572,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.09566701766772445</v>
+        <v>0.2311914922271492</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2194834295511246</v>
+        <v>0.2285009965449572</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008760847900946037</v>
+        <v>0.007784128407898858</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -593,13 +601,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.45035931757805</v>
+        <v>2.515728496350382</v>
       </c>
       <c r="E9" t="n">
-        <v>2.589686144113541</v>
+        <v>2.592340103149414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08227361025511878</v>
+        <v>0.08270686259312163</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -622,13 +630,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2911811583879726</v>
+        <v>0.273670527879375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3512575879693031</v>
+        <v>0.2634404433369636</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01197980863363646</v>
+        <v>0.01059491003840474</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -651,13 +659,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.475610245698677</v>
+        <v>2.432198079641796</v>
       </c>
       <c r="E11" t="n">
-        <v>2.492827641489762</v>
+        <v>2.410675540180921</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07910673899493473</v>
+        <v>0.07630885580160061</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -680,13 +688,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.389430763019782</v>
+        <v>0.3120016174686616</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2823352706700801</v>
+        <v>0.2817199851640899</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0126826903942877</v>
+        <v>0.01270233237277591</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -709,13 +717,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3735002018570852</v>
+        <v>0.4421431459765467</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5282260225785356</v>
+        <v>0.5291691092703767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01948837341497749</v>
+        <v>0.01963339001921008</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -738,13 +746,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.178700040371417</v>
+        <v>0.1833885968459361</v>
       </c>
       <c r="E14" t="n">
-        <v>0.149058450399161</v>
+        <v>0.1491808168279789</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008673510417609305</v>
+        <v>0.008747560962337361</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -767,13 +775,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3641247559069888</v>
+        <v>0.2421704917092923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2388526880499385</v>
+        <v>0.2400210314531001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01994346767187004</v>
+        <v>0.02046209715376685</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -796,13 +804,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.06189974787140653</v>
+        <v>0.171222256034539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.22419319888022</v>
+        <v>0.2268727637985438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02190130316532154</v>
+        <v>0.02170374319004783</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -825,13 +833,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1046421997387022</v>
+        <v>-0.2233103409440996</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06540378725536067</v>
+        <v>-0.0661008244831439</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0209973996160298</v>
+        <v>0.02014208879289298</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -854,13 +862,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.01432397469862057</v>
+        <v>-0.03217970150651106</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02392661882078389</v>
+        <v>-0.02651057771846508</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02055319469374744</v>
+        <v>0.01991254957604298</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -883,13 +891,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6225887028101049</v>
+        <v>0.4468211274875265</v>
       </c>
       <c r="E19" t="n">
-        <v>0.585264909228308</v>
+        <v>0.3160884780617422</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02026942824165394</v>
+        <v>0.01057443201292244</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -912,13 +920,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3868634900551436</v>
+        <v>0.6215673390842769</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4185593185121093</v>
+        <v>0.5886643553724413</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01952905771914442</v>
+        <v>0.02423126045368539</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -941,13 +949,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2096526231084588</v>
+        <v>0.2775019744116156</v>
       </c>
       <c r="E21" t="n">
-        <v>0.208091256202629</v>
+        <v>0.3238487507075737</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0143357113310673</v>
+        <v>0.02046718181772308</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -970,13 +978,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.02340715085628979</v>
+        <v>0.0477047466939745</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006995364946533139</v>
+        <v>0.04068252310754032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02119645947542285</v>
+        <v>0.007304322614855204</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
@@ -1002,8 +1010,8 @@
   </sheetPr>
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1420,7 +1428,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>% advanced/expert (control group)</t>
+          <t>% advanced or expert (control group)</t>
         </is>
       </c>
       <c r="D19" s="14">
@@ -1503,6 +1511,483 @@
         <is>
           <t>estos no tienen relacion 1-1</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="28.5" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
+    <col width="2.83203125" customWidth="1" style="13" min="3" max="3"/>
+    <col width="10.83203125" customWidth="1" style="15" min="4" max="4"/>
+    <col width="2.83203125" customWidth="1" style="15" min="5" max="5"/>
+    <col width="10.83203125" customWidth="1" style="15" min="6" max="6"/>
+    <col width="2.83203125" customWidth="1" style="15" min="7" max="7"/>
+    <col width="10.83203125" customWidth="1" style="15" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>Moment</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="n"/>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="n"/>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="n"/>
+      <c r="H2" s="20" t="inlineStr">
+        <is>
+          <t>S.E. data</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A. Treatment group  (2016 teachers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mean Portfolio (treatment)</t>
+        </is>
+      </c>
+      <c r="D5" s="14">
+        <f>data!D5</f>
+        <v/>
+      </c>
+      <c r="E5" s="14" t="n"/>
+      <c r="F5" s="14">
+        <f>data!E5</f>
+        <v/>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16">
+        <f>data!F5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Variance Portfolio (treatment)</t>
+        </is>
+      </c>
+      <c r="D6" s="14">
+        <f>data!D6</f>
+        <v/>
+      </c>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="14">
+        <f>data!E6</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="16">
+        <f>data!F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mean Test (treatment)</t>
+        </is>
+      </c>
+      <c r="D7" s="14">
+        <f>data!D9</f>
+        <v/>
+      </c>
+      <c r="E7" s="14" t="n"/>
+      <c r="F7" s="14">
+        <f>data!E9</f>
+        <v/>
+      </c>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="16">
+        <f>data!F9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Variance Test (treatment)</t>
+        </is>
+      </c>
+      <c r="D8" s="14">
+        <f>data!D10</f>
+        <v/>
+      </c>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="14">
+        <f>data!E10</f>
+        <v/>
+      </c>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="16">
+        <f>data!F10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>\% Intermediate (treatment)</t>
+        </is>
+      </c>
+      <c r="D9" s="14">
+        <f>data!D12*100</f>
+        <v/>
+      </c>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14">
+        <f>data!E12*100</f>
+        <v/>
+      </c>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="16">
+        <f>data!F12*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>\% Advanced (treatment)</t>
+        </is>
+      </c>
+      <c r="D10" s="14">
+        <f>data!D13*100</f>
+        <v/>
+      </c>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="14">
+        <f>data!E13*100</f>
+        <v/>
+      </c>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="16">
+        <f>data!F13*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>\% Expert (treatment)</t>
+        </is>
+      </c>
+      <c r="D11" s="14">
+        <f>data!D14*100</f>
+        <v/>
+      </c>
+      <c r="E11" s="14" t="n"/>
+      <c r="F11" s="14">
+        <f>data!E14*100</f>
+        <v/>
+      </c>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="16">
+        <f>data!F14*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>corr(Port,Simce) (treatment)</t>
+        </is>
+      </c>
+      <c r="D12" s="14">
+        <f>data!D15</f>
+        <v/>
+      </c>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="14">
+        <f>data!E15</f>
+        <v/>
+      </c>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="16">
+        <f>data!F15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>corr(Test,Simce) (treatment)</t>
+        </is>
+      </c>
+      <c r="D13" s="14">
+        <f>data!D16</f>
+        <v/>
+      </c>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="14">
+        <f>data!E16</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="16">
+        <f>data!F16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>corr(exp,Port) (treatment)</t>
+        </is>
+      </c>
+      <c r="D14" s="14">
+        <f>data!D17</f>
+        <v/>
+      </c>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="14">
+        <f>data!E17</f>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="16">
+        <f>data!F17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>corr(exp,Test) (treatment)</t>
+        </is>
+      </c>
+      <c r="D15" s="14">
+        <f>data!D18</f>
+        <v/>
+      </c>
+      <c r="E15" s="14" t="n"/>
+      <c r="F15" s="14">
+        <f>data!E18</f>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="n"/>
+      <c r="H15" s="16">
+        <f>data!F18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Corr(Port,p) (treatment)</t>
+        </is>
+      </c>
+      <c r="D16" s="14">
+        <f>data!D20</f>
+        <v/>
+      </c>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="14">
+        <f>data!E20</f>
+        <v/>
+      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16">
+        <f>data!F20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Corr(Test,p) (treatment)</t>
+        </is>
+      </c>
+      <c r="D17" s="14">
+        <f>data!D21</f>
+        <v/>
+      </c>
+      <c r="E17" s="14" t="n"/>
+      <c r="F17" s="14">
+        <f>data!E21</f>
+        <v/>
+      </c>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="16">
+        <f>data!F21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="14" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="16" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B. Control group (2018- teachers)</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="14" t="n"/>
+      <c r="F19" s="14" t="n"/>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="16" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mean Portfolio-Test (control)</t>
+        </is>
+      </c>
+      <c r="D20" s="14">
+        <f>data!D11</f>
+        <v/>
+      </c>
+      <c r="E20" s="14" t="n"/>
+      <c r="F20" s="14">
+        <f>data!E11</f>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="16">
+        <f>data!F11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>% advanced or expert (control group)</t>
+        </is>
+      </c>
+      <c r="D21" s="14">
+        <f>data!D19*100</f>
+        <v/>
+      </c>
+      <c r="E21" s="14" t="n"/>
+      <c r="F21" s="14">
+        <f>data!E19*100</f>
+        <v/>
+      </c>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="16">
+        <f>data!F19*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="14" t="n"/>
+      <c r="F22" s="14" t="n"/>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C. Full sample</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="14" t="n"/>
+      <c r="F23" s="14" t="n"/>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mean SIMCE</t>
+        </is>
+      </c>
+      <c r="D24" s="14">
+        <f>data!D7</f>
+        <v/>
+      </c>
+      <c r="E24" s="14" t="n"/>
+      <c r="F24" s="14">
+        <f>data!E7</f>
+        <v/>
+      </c>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="16">
+        <f>data!F7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Variance SIMCE</t>
+        </is>
+      </c>
+      <c r="D25" s="14">
+        <f>data!D8</f>
+        <v/>
+      </c>
+      <c r="E25" s="14" t="n"/>
+      <c r="F25" s="14">
+        <f>data!E8</f>
+        <v/>
+      </c>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16">
+        <f>data!F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Corr(Simce,Exp)</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="6">
+        <f>data!D22</f>
+        <v/>
+      </c>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6">
+        <f>data!E22</f>
+        <v/>
+      </c>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11">
+        <f>data!F22</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4780" yWindow="500" windowWidth="28800" windowHeight="16300" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,10 +437,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:J23"/>
+  <dimension ref="C4:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.356137804814221</v>
+        <v>2.464088200842154</v>
       </c>
       <c r="E5" t="n">
-        <v>2.581629552841187</v>
+        <v>2.581198556184769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08183032940787834</v>
+        <v>0.08182810964922846</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06525573625019801</v>
+        <v>0.06927044459805856</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06258531584590674</v>
+        <v>0.06250998651981354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00281639474968377</v>
+        <v>0.002812108107274512</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3439002818042596</v>
+        <v>-0.3994801237015926</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3443836978673935</v>
+        <v>-0.3443212494254112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01143701077400334</v>
+        <v>0.01137968585875859</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2311914922271492</v>
+        <v>0.2199161972911622</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2285009965449572</v>
+        <v>0.2285554205775261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007784128407898858</v>
+        <v>0.007737233353145483</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.515728496350382</v>
+        <v>2.509349917307424</v>
       </c>
       <c r="E9" t="n">
-        <v>2.592340103149414</v>
+        <v>2.592065150976181</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08270686259312163</v>
+        <v>0.08266076218085858</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.273670527879375</v>
+        <v>0.2905799883187443</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2634404433369636</v>
+        <v>0.2635648551732302</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01059491003840474</v>
+        <v>0.01053098017579399</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.432198079641796</v>
+        <v>2.490999063512804</v>
       </c>
       <c r="E11" t="n">
-        <v>2.410675540180921</v>
+        <v>2.410592958283658</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07630885580160061</v>
+        <v>0.07631052784374842</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3120016174686616</v>
+        <v>0.3616012939749292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2817199851640899</v>
+        <v>0.2821355535332045</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01270233237277591</v>
+        <v>0.01259466476202391</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4421431459765467</v>
+        <v>0.3817226041245452</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5291691092703767</v>
+        <v>0.529291248397036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01963339001921008</v>
+        <v>0.01947491925114392</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1833885968459361</v>
+        <v>0.1826202992317024</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1491808168279789</v>
+        <v>0.1488150260894422</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008747560962337361</v>
+        <v>0.008497317180154439</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2421704917092923</v>
+        <v>0.2224529920915002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2400210314531001</v>
+        <v>0.2389975308689028</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02046209715376685</v>
+        <v>0.01970719446538374</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.171222256034539</v>
+        <v>0.1164375179339663</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2268727637985438</v>
+        <v>0.226189139557443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02170374319004783</v>
+        <v>0.02150634078225261</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.2233103409440996</v>
+        <v>-0.07164023951563281</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0661008244831439</v>
+        <v>-0.06684177619523311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02014208879289298</v>
+        <v>0.02030145292122476</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.03217970150651106</v>
+        <v>-0.01872787656146262</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02651057771846508</v>
+        <v>-0.02534243929760681</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01991254957604298</v>
+        <v>0.02070464178194394</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4468211274875265</v>
+        <v>0.5639777484659059</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3160884780617422</v>
+        <v>0.3161279605158629</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01057443201292244</v>
+        <v>0.01064494658365078</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6215673390842769</v>
+        <v>0.4813890666782157</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5886643553724413</v>
+        <v>0.588282594848905</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02423126045368539</v>
+        <v>0.02417879833631291</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2775019744116156</v>
+        <v>0.2215609137065696</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3238487507075737</v>
+        <v>0.3246538201806384</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02046718181772308</v>
+        <v>0.02109262303944222</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0477047466939745</v>
+        <v>-0.05634598840963018</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04068252310754032</v>
+        <v>0.04015706062279335</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007304322614855204</v>
+        <v>0.007065554505528104</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
@@ -992,8 +992,32 @@
       </c>
     </row>
     <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Past portfolio and % expert</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
       <c r="J23">
         <f>SUM(J5:J22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Past test and % expert</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v/>
+      </c>
+      <c r="F24" t="n">
         <v/>
       </c>
     </row>
@@ -1526,8 +1550,8 @@
   </sheetPr>
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1868,7 +1892,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mean Portfolio-Test (control)</t>
+          <t>Average of past portfolio-test (control)</t>
         </is>
       </c>
       <c r="D20" s="14">

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,10 +437,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:J24"/>
+  <dimension ref="C4:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.464088200842154</v>
+        <v>2.393049952958328</v>
       </c>
       <c r="E5" t="n">
-        <v>2.581198556184769</v>
+        <v>2.581565579414367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08182810964922846</v>
+        <v>0.08182874260292955</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06927044459805856</v>
+        <v>0.06728785659685134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06250998651981354</v>
+        <v>0.06257367359101772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002812108107274512</v>
+        <v>0.002818761422043914</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3994801237015926</v>
+        <v>-0.2642008424161997</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3443212494254112</v>
+        <v>-0.3444480294585228</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01137968585875859</v>
+        <v>0.01140426822338832</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2199161972911622</v>
+        <v>0.24336377555324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2285554205775261</v>
+        <v>0.2285021986961365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007737233353145483</v>
+        <v>0.007768222776008471</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.509349917307424</v>
+        <v>2.507219055660872</v>
       </c>
       <c r="E9" t="n">
-        <v>2.592065150976181</v>
+        <v>2.592231221914291</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08266076218085858</v>
+        <v>0.08266344020207321</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2905799883187443</v>
+        <v>0.2630387394224682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2635648551732302</v>
+        <v>0.263034506380558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01053098017579399</v>
+        <v>0.01048503481222027</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.490999063512804</v>
+        <v>2.442980255682476</v>
       </c>
       <c r="E11" t="n">
-        <v>2.410592958283658</v>
+        <v>2.410472437144871</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07631052784374842</v>
+        <v>0.07630338103185176</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3616012939749292</v>
+        <v>0.3046097856854023</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2821355535332045</v>
+        <v>0.2818777895815746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01259466476202391</v>
+        <v>0.01260738185948163</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3817226041245452</v>
+        <v>0.4334977759805904</v>
       </c>
       <c r="E13" t="n">
-        <v>0.529291248397036</v>
+        <v>0.5296577431267996</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01947491925114392</v>
+        <v>0.01947581392868195</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1826202992317024</v>
+        <v>0.2133117670845127</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1488150260894422</v>
+        <v>0.1488104173512825</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008497317180154439</v>
+        <v>0.008389467782156297</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2224529920915002</v>
+        <v>0.1812050472975702</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2389975308689028</v>
+        <v>0.2386545155406662</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01970719446538374</v>
+        <v>0.02023419711379746</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.1164375179339663</v>
+        <v>0.3620695402176274</v>
       </c>
       <c r="E16" t="n">
-        <v>0.226189139557443</v>
+        <v>0.2260111108603461</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02150634078225261</v>
+        <v>0.02186858751736081</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.07164023951563281</v>
+        <v>-0.09692319278094491</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06684177619523311</v>
+        <v>-0.06602769124240029</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02030145292122476</v>
+        <v>0.02050401360225442</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.01872787656146262</v>
+        <v>0.01539010981703655</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02534243929760681</v>
+        <v>-0.02509134328193019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02070464178194394</v>
+        <v>0.02006525571072114</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5639777484659059</v>
+        <v>0.4720880885473419</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3161279605158629</v>
+        <v>0.3160005902945181</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01064494658365078</v>
+        <v>0.01058874699875399</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4813890666782157</v>
+        <v>0.6554887257281814</v>
       </c>
       <c r="E20" t="n">
-        <v>0.588282594848905</v>
+        <v>0.5879475685821897</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02417879833631291</v>
+        <v>0.0240041724868178</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2215609137065696</v>
+        <v>0.1353599220474271</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3246538201806384</v>
+        <v>0.3237328135489578</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02109262303944222</v>
+        <v>0.02075877695300378</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.05634598840963018</v>
+        <v>0.1208231616059848</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04015706062279335</v>
+        <v>0.04067292148046374</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007065554505528104</v>
+        <v>0.007255925061936016</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
@@ -997,14 +997,17 @@
           <t>Past portfolio and % expert</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>0.2355367723246737</v>
+      </c>
       <c r="E23" t="n">
-        <v/>
+        <v>0.3823872146348747</v>
       </c>
       <c r="F23" t="n">
-        <v/>
+        <v>0.02030854832062191</v>
       </c>
       <c r="J23">
-        <f>SUM(J5:J22)</f>
+        <f>(D23-E23)^2/F23^2</f>
         <v/>
       </c>
     </row>
@@ -1014,10 +1017,23 @@
           <t>Past test and % expert</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>0.3251983326596373</v>
+      </c>
       <c r="E24" t="n">
-        <v/>
+        <v>0.4946261909055633</v>
       </c>
       <c r="F24" t="n">
+        <v>0.02262665737790864</v>
+      </c>
+      <c r="J24">
+        <f>(D24-E24)^2/F24^2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="J25">
+        <f>SUM(J5:J24)</f>
         <v/>
       </c>
     </row>
@@ -1550,8 +1566,8 @@
   </sheetPr>
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1600,7 +1616,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mean Portfolio (treatment)</t>
+          <t xml:space="preserve">Mean Portfolio </t>
         </is>
       </c>
       <c r="D5" s="14">
@@ -1621,7 +1637,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Variance Portfolio (treatment)</t>
+          <t xml:space="preserve">Variance Portfolio </t>
         </is>
       </c>
       <c r="D6" s="14">
@@ -1642,7 +1658,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mean Test (treatment)</t>
+          <t>Mean PKT</t>
         </is>
       </c>
       <c r="D7" s="14">
@@ -1663,7 +1679,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Variance Test (treatment)</t>
+          <t>Variance PKT</t>
         </is>
       </c>
       <c r="D8" s="14">
@@ -1684,7 +1700,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>\% Intermediate (treatment)</t>
+          <t>\% Intermediate</t>
         </is>
       </c>
       <c r="D9" s="14">
@@ -1705,7 +1721,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>\% Advanced (treatment)</t>
+          <t>\% Advanced</t>
         </is>
       </c>
       <c r="D10" s="14">
@@ -1726,7 +1742,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>\% Expert (treatment)</t>
+          <t>\% Expert</t>
         </is>
       </c>
       <c r="D11" s="14">
@@ -1747,7 +1763,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>corr(Port,Simce) (treatment)</t>
+          <t xml:space="preserve">corr(Port,Simce) </t>
         </is>
       </c>
       <c r="D12" s="14">
@@ -1768,7 +1784,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>corr(Test,Simce) (treatment)</t>
+          <t xml:space="preserve">corr(Test,Simce) </t>
         </is>
       </c>
       <c r="D13" s="14">
@@ -1789,7 +1805,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>corr(exp,Port) (treatment)</t>
+          <t xml:space="preserve">corr(exp,Port) </t>
         </is>
       </c>
       <c r="D14" s="14">
@@ -1810,7 +1826,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>corr(exp,Test) (treatment)</t>
+          <t xml:space="preserve">corr(exp,Test) </t>
         </is>
       </c>
       <c r="D15" s="14">
@@ -1831,7 +1847,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Corr(Port,p) (treatment)</t>
+          <t xml:space="preserve">Corr(Port,p) </t>
         </is>
       </c>
       <c r="D16" s="14">
@@ -1852,7 +1868,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Corr(Test,p) (treatment)</t>
+          <t xml:space="preserve">Corr(Test,p) </t>
         </is>
       </c>
       <c r="D17" s="14">
@@ -1892,7 +1908,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Average of past portfolio-test (control)</t>
+          <t>Average of past portfolio-test</t>
         </is>
       </c>
       <c r="D20" s="14">
@@ -1913,7 +1929,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>% advanced or expert (control group)</t>
+          <t>% advanced or expert</t>
         </is>
       </c>
       <c r="D21" s="14">

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.393049952958328</v>
+        <v>2.363070468628005</v>
       </c>
       <c r="E5" t="n">
         <v>2.581565579414367</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06728785659685134</v>
+        <v>0.07188899101417243</v>
       </c>
       <c r="E6" t="n">
         <v>0.06257367359101772</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2642008424161997</v>
+        <v>-0.3481388986083073</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3444480294585228</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.24336377555324</v>
+        <v>0.2262012405916103</v>
       </c>
       <c r="E8" t="n">
         <v>0.2285021986961365</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.507219055660872</v>
+        <v>2.492867487854896</v>
       </c>
       <c r="E9" t="n">
         <v>2.592231221914291</v>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2630387394224682</v>
+        <v>0.2671958650971716</v>
       </c>
       <c r="E10" t="n">
         <v>0.263034506380558</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.442980255682476</v>
+        <v>2.418529064907384</v>
       </c>
       <c r="E11" t="n">
         <v>2.410472437144871</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3046097856854023</v>
+        <v>0.3311118621155796</v>
       </c>
       <c r="E12" t="n">
         <v>0.2818777895815746</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4334977759805904</v>
+        <v>0.4266508955728286</v>
       </c>
       <c r="E13" t="n">
         <v>0.5296577431267996</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2133117670845127</v>
+        <v>0.2009665427509293</v>
       </c>
       <c r="E14" t="n">
         <v>0.1488104173512825</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1812050472975702</v>
+        <v>0.2336306198937148</v>
       </c>
       <c r="E15" t="n">
         <v>0.2386545155406662</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3620695402176274</v>
+        <v>0.2780790558736198</v>
       </c>
       <c r="E16" t="n">
         <v>0.2260111108603461</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.09692319278094491</v>
+        <v>-0.1564787544150041</v>
       </c>
       <c r="E17" t="n">
         <v>-0.06602769124240029</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.01539010981703655</v>
+        <v>0.005974167488294789</v>
       </c>
       <c r="E18" t="n">
         <v>-0.02509134328193019</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4720880885473419</v>
+        <v>0.4117376532571767</v>
       </c>
       <c r="E19" t="n">
         <v>0.3160005902945181</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6554887257281814</v>
+        <v>0.6240486996118719</v>
       </c>
       <c r="E20" t="n">
         <v>0.5879475685821897</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1353599220474271</v>
+        <v>0.2237575135350566</v>
       </c>
       <c r="E21" t="n">
         <v>0.3237328135489578</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1208231616059848</v>
+        <v>0.03675178589910508</v>
       </c>
       <c r="E22" t="n">
         <v>0.04067292148046374</v>
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2355367723246737</v>
+        <v>0.2366326647980964</v>
       </c>
       <c r="E23" t="n">
         <v>0.3823872146348747</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3251983326596373</v>
+        <v>0.3266854758224005</v>
       </c>
       <c r="E24" t="n">
         <v>0.4946261909055633</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -437,10 +437,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C4:J25"/>
+  <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.363070468628005</v>
+        <v>2.373420435428225</v>
       </c>
       <c r="E5" t="n">
-        <v>2.581565579414367</v>
+        <v>2.576630519628525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08182874260292955</v>
+        <v>0.08164715903196171</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07188899101417243</v>
+        <v>0.07138971453727255</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06257367359101772</v>
+        <v>0.06133794514834881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002818761422043914</v>
+        <v>0.002622678095011646</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3481388986083073</v>
+        <v>-0.3388462548494522</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3444480294585228</v>
+        <v>-0.3525642129778862</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01140426822338832</v>
+        <v>0.01161199713255933</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2262012405916103</v>
+        <v>0.2288157473547942</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2285021986961365</v>
+        <v>0.2638800442814827</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007768222776008471</v>
+        <v>0.008885795218818177</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.492867487854896</v>
+        <v>2.493656150024008</v>
       </c>
       <c r="E9" t="n">
-        <v>2.592231221914291</v>
+        <v>2.585287255048752</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08266344020207321</v>
+        <v>0.08235110389677236</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2671958650971716</v>
+        <v>0.2646393723224644</v>
       </c>
       <c r="E10" t="n">
-        <v>0.263034506380558</v>
+        <v>0.2584711409658194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01048503481222027</v>
+        <v>0.01004802869067144</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.418529064907384</v>
+        <v>2.423554827489142</v>
       </c>
       <c r="E11" t="n">
-        <v>2.410472437144871</v>
+        <v>2.4094847646897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07630338103185176</v>
+        <v>0.07626731252655336</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3311118621155796</v>
+        <v>0.309205812774586</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2818777895815746</v>
+        <v>0.2851554799245871</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01260738185948163</v>
+        <v>0.0121985665418822</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4266508955728286</v>
+        <v>0.4515444406894221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5296577431267996</v>
+        <v>0.5315983342694378</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01947581392868195</v>
+        <v>0.01916980495591796</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2009665427509293</v>
+        <v>0.199905373436972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1488104173512825</v>
+        <v>0.1418508460156945</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008389467782156297</v>
+        <v>0.007941641941221683</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2336306198937148</v>
+        <v>0.1888404246655233</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2386545155406662</v>
+        <v>0.2068904141768755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02023419711379746</v>
+        <v>0.01885783011450599</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2780790558736198</v>
+        <v>0.2378275213560124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2260111108603461</v>
+        <v>0.2015302385505502</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02186858751736081</v>
+        <v>0.01968563812959444</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1564787544150041</v>
+        <v>-0.1448787886555005</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06602769124240029</v>
+        <v>-0.05900479096240778</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02050401360225442</v>
+        <v>0.01803628546388143</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.005974167488294789</v>
+        <v>0.00759650508292628</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02509134328193019</v>
+        <v>-0.02479339063389524</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02006525571072114</v>
+        <v>0.01834683408094412</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4117376532571767</v>
+        <v>0.4211344724013983</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3160005902945181</v>
+        <v>0.3169023398360751</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01058874699875399</v>
+        <v>0.01053797245042425</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6240486996118719</v>
+        <v>0.6191579988240159</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5879475685821897</v>
+        <v>0.5795648185578327</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0240041724868178</v>
+        <v>0.02327032290503902</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2237575135350566</v>
+        <v>0.1102882946930028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3237328135489578</v>
+        <v>0.3111629186435975</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02075877695300378</v>
+        <v>0.01953587741858369</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.03675178589910508</v>
+        <v>0.02474953602968901</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04067292148046374</v>
+        <v>0.03398225929140364</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007255925061936016</v>
+        <v>0.006352793746508848</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
@@ -992,48 +992,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Past portfolio and % expert</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.2366326647980964</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.3823872146348747</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.02030854832062191</v>
-      </c>
       <c r="J23">
-        <f>(D23-E23)^2/F23^2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Past test and % expert</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3266854758224005</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4946261909055633</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.02262665737790864</v>
-      </c>
-      <c r="J24">
-        <f>(D24-E24)^2/F24^2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="J25">
-        <f>SUM(J5:J24)</f>
+        <f>SUM(J5:J22)</f>
         <v/>
       </c>
     </row>
@@ -1566,8 +1526,8 @@
   </sheetPr>
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.373420435428225</v>
+        <v>2.367899673874997</v>
       </c>
       <c r="E5" t="n">
         <v>2.576630519628525</v>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07138971453727255</v>
+        <v>0.07002404621610055</v>
       </c>
       <c r="E6" t="n">
         <v>0.06133794514834881</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3388462548494522</v>
+        <v>-0.3559151560458474</v>
       </c>
       <c r="E7" t="n">
         <v>-0.3525642129778862</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2288157473547942</v>
+        <v>0.2619431526596601</v>
       </c>
       <c r="E8" t="n">
         <v>0.2638800442814827</v>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.493656150024008</v>
+        <v>2.498394558263731</v>
       </c>
       <c r="E9" t="n">
         <v>2.585287255048752</v>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2646393723224644</v>
+        <v>0.2530015216472968</v>
       </c>
       <c r="E10" t="n">
         <v>0.2584711409658194</v>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.423554827489142</v>
+        <v>2.42295084177452</v>
       </c>
       <c r="E11" t="n">
         <v>2.4094847646897</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.309205812774586</v>
+        <v>0.3224670496789456</v>
       </c>
       <c r="E12" t="n">
         <v>0.2851554799245871</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4515444406894221</v>
+        <v>0.4435958093950659</v>
       </c>
       <c r="E13" t="n">
         <v>0.5315983342694378</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.199905373436972</v>
+        <v>0.1936870564379858</v>
       </c>
       <c r="E14" t="n">
         <v>0.1418508460156945</v>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1888404246655233</v>
+        <v>0.193282093897509</v>
       </c>
       <c r="E15" t="n">
         <v>0.2068904141768755</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2378275213560124</v>
+        <v>0.219220690029325</v>
       </c>
       <c r="E16" t="n">
         <v>0.2015302385505502</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1448787886555005</v>
+        <v>-0.1105923956464526</v>
       </c>
       <c r="E17" t="n">
         <v>-0.05900479096240778</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.00759650508292628</v>
+        <v>0.005863903358051403</v>
       </c>
       <c r="E18" t="n">
         <v>-0.02479339063389524</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4211344724013983</v>
+        <v>0.4143630902555517</v>
       </c>
       <c r="E19" t="n">
         <v>0.3169023398360751</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6191579988240159</v>
+        <v>0.5139108704465918</v>
       </c>
       <c r="E20" t="n">
         <v>0.5795648185578327</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1102882946930028</v>
+        <v>0.1719286908784542</v>
       </c>
       <c r="E21" t="n">
         <v>0.3111629186435975</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.02474953602968901</v>
+        <v>0.03066205678034255</v>
       </c>
       <c r="E22" t="n">
         <v>0.03398225929140364</v>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table_v2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="description" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -439,7 +440,7 @@
   </sheetPr>
   <dimension ref="C4:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -485,13 +486,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.367899673874997</v>
+        <v>2.334481465252155</v>
       </c>
       <c r="E5" t="n">
-        <v>2.576630519628525</v>
+        <v>2.580110813617706</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08164715903196171</v>
+        <v>0.08176001625193983</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -514,13 +515,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07002404621610055</v>
+        <v>0.06304154895794926</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06133794514834881</v>
+        <v>0.06096502326056361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002622678095011646</v>
+        <v>0.002667993418089886</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -543,13 +544,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3559151560458474</v>
+        <v>-0.3509889664315783</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3525642129778862</v>
+        <v>-0.3493406109511852</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01161199713255933</v>
+        <v>0.0115327425462048</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -572,13 +573,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2619431526596601</v>
+        <v>0.2481196581417857</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2638800442814827</v>
+        <v>0.2464505309313536</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008885795218818177</v>
+        <v>0.008284475005338384</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -601,13 +602,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.498394558263731</v>
+        <v>2.464879218125172</v>
       </c>
       <c r="E9" t="n">
-        <v>2.585287255048752</v>
+        <v>2.587153523921967</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08235110389677236</v>
+        <v>0.08239477748992292</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -630,13 +631,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2530015216472968</v>
+        <v>0.2390396292501084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2584711409658194</v>
+        <v>0.2593775341957807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01004802869067144</v>
+        <v>0.01006311784609043</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -659,13 +660,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.42295084177452</v>
+        <v>2.394167747031487</v>
       </c>
       <c r="E11" t="n">
-        <v>2.4094847646897</v>
+        <v>2.414178857578098</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07626731252655336</v>
+        <v>0.07642074172699237</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -688,13 +689,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3224670496789456</v>
+        <v>0.3122126745435016</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2851554799245871</v>
+        <v>0.2806614651841889</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0121985665418822</v>
+        <v>0.01227379414580883</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -717,13 +718,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4435958093950659</v>
+        <v>0.3963050483351235</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5315983342694378</v>
+        <v>0.5355984041030686</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01916980495591796</v>
+        <v>0.01939282459123494</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -746,13 +747,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1936870564379858</v>
+        <v>0.1570891514500537</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1418508460156945</v>
+        <v>0.1440756446558492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.007941641941221683</v>
+        <v>0.008237021923345316</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -775,13 +776,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.193282093897509</v>
+        <v>0.2426329908161975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2068904141768755</v>
+        <v>0.2248075794426195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01885783011450599</v>
+        <v>0.0188053778978506</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -804,13 +805,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.219220690029325</v>
+        <v>0.2168432655897576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2015302385505502</v>
+        <v>0.2115540695787249</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01968563812959444</v>
+        <v>0.02079405916577871</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -833,13 +834,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.1105923956464526</v>
+        <v>-0.04741708855967446</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05900479096240778</v>
+        <v>-0.0534201121761735</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01803628546388143</v>
+        <v>0.01901255028689232</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -862,13 +863,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.005863903358051403</v>
+        <v>0.1734706977807524</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02479339063389524</v>
+        <v>-0.01647283785540881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01834683408094412</v>
+        <v>0.01871554843391677</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -891,13 +892,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4143630902555517</v>
+        <v>0.3497972195165147</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3169023398360751</v>
+        <v>0.3205286526586854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01053797245042425</v>
+        <v>0.0106812637549021</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -920,13 +921,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5139108704465918</v>
+        <v>0.4507337182811314</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5795648185578327</v>
+        <v>0.5849596750073122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02327032290503902</v>
+        <v>0.02336291185204391</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -949,13 +950,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.1719286908784542</v>
+        <v>0.320984995098799</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3111629186435975</v>
+        <v>0.3110667178387777</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01953587741858369</v>
+        <v>0.01971975353464254</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -978,13 +979,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.03066205678034255</v>
+        <v>0.03462097847649802</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03398225929140364</v>
+        <v>0.0392123264834722</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006352793746508848</v>
+        <v>0.007014148367127777</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
@@ -1524,10 +1525,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1566,287 +1567,299 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A. Treatment group  (2016 teachers)</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>A. Treatment group  (2016 teachers)</t>
-        </is>
+          <t xml:space="preserve">Mean Portfolio </t>
+        </is>
+      </c>
+      <c r="D4" s="14">
+        <f>data!D5</f>
+        <v/>
+      </c>
+      <c r="E4" s="14" t="n"/>
+      <c r="F4" s="14">
+        <f>data!E5</f>
+        <v/>
+      </c>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="16">
+        <f>data!F5</f>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mean Portfolio </t>
+          <t xml:space="preserve">Variance Portfolio </t>
         </is>
       </c>
       <c r="D5" s="14">
-        <f>data!D5</f>
+        <f>data!D6</f>
         <v/>
       </c>
       <c r="E5" s="14" t="n"/>
       <c r="F5" s="14">
-        <f>data!E5</f>
+        <f>data!E6</f>
         <v/>
       </c>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="16">
-        <f>data!F5</f>
+        <f>data!F6</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variance Portfolio </t>
+          <t>Mean PKT</t>
         </is>
       </c>
       <c r="D6" s="14">
-        <f>data!D6</f>
+        <f>data!D9</f>
         <v/>
       </c>
       <c r="E6" s="14" t="n"/>
       <c r="F6" s="14">
-        <f>data!E6</f>
+        <f>data!E9</f>
         <v/>
       </c>
       <c r="G6" s="16" t="n"/>
       <c r="H6" s="16">
-        <f>data!F6</f>
+        <f>data!F9</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mean PKT</t>
+          <t>Variance PKT</t>
         </is>
       </c>
       <c r="D7" s="14">
-        <f>data!D9</f>
+        <f>data!D10</f>
         <v/>
       </c>
       <c r="E7" s="14" t="n"/>
       <c r="F7" s="14">
-        <f>data!E9</f>
+        <f>data!E10</f>
         <v/>
       </c>
       <c r="G7" s="16" t="n"/>
       <c r="H7" s="16">
-        <f>data!F9</f>
+        <f>data!F10</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Variance PKT</t>
+          <t>\% Intermediate</t>
         </is>
       </c>
       <c r="D8" s="14">
-        <f>data!D10</f>
+        <f>data!D12*100</f>
         <v/>
       </c>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="14">
-        <f>data!E10</f>
+        <f>data!E12*100</f>
         <v/>
       </c>
       <c r="G8" s="16" t="n"/>
       <c r="H8" s="16">
-        <f>data!F10</f>
+        <f>data!F12*100</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>\% Intermediate</t>
+          <t>\% Advanced</t>
         </is>
       </c>
       <c r="D9" s="14">
-        <f>data!D12*100</f>
+        <f>data!D13*100</f>
         <v/>
       </c>
       <c r="E9" s="14" t="n"/>
       <c r="F9" s="14">
-        <f>data!E12*100</f>
+        <f>data!E13*100</f>
         <v/>
       </c>
       <c r="G9" s="16" t="n"/>
       <c r="H9" s="16">
-        <f>data!F12*100</f>
+        <f>data!F13*100</f>
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>\% Advanced</t>
+          <t>\% Expert</t>
         </is>
       </c>
       <c r="D10" s="14">
-        <f>data!D13*100</f>
+        <f>data!D14*100</f>
         <v/>
       </c>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="14">
-        <f>data!E13*100</f>
+        <f>data!E14*100</f>
         <v/>
       </c>
       <c r="G10" s="16" t="n"/>
       <c r="H10" s="16">
-        <f>data!F13*100</f>
+        <f>data!F14*100</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>\% Expert</t>
+          <t xml:space="preserve">corr(Port,Simce) </t>
         </is>
       </c>
       <c r="D11" s="14">
-        <f>data!D14*100</f>
+        <f>data!D15</f>
         <v/>
       </c>
       <c r="E11" s="14" t="n"/>
       <c r="F11" s="14">
-        <f>data!E14*100</f>
+        <f>data!E15</f>
         <v/>
       </c>
       <c r="G11" s="16" t="n"/>
       <c r="H11" s="16">
-        <f>data!F14*100</f>
+        <f>data!F15</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">corr(Port,Simce) </t>
+          <t xml:space="preserve">corr(Test,Simce) </t>
         </is>
       </c>
       <c r="D12" s="14">
-        <f>data!D15</f>
+        <f>data!D16</f>
         <v/>
       </c>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="14">
-        <f>data!E15</f>
+        <f>data!E16</f>
         <v/>
       </c>
       <c r="G12" s="16" t="n"/>
       <c r="H12" s="16">
-        <f>data!F15</f>
+        <f>data!F16</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">corr(Test,Simce) </t>
+          <t xml:space="preserve">corr(exp,Port) </t>
         </is>
       </c>
       <c r="D13" s="14">
-        <f>data!D16</f>
+        <f>data!D17</f>
         <v/>
       </c>
       <c r="E13" s="14" t="n"/>
       <c r="F13" s="14">
-        <f>data!E16</f>
+        <f>data!E17</f>
         <v/>
       </c>
       <c r="G13" s="16" t="n"/>
       <c r="H13" s="16">
-        <f>data!F16</f>
+        <f>data!F17</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">corr(exp,Port) </t>
+          <t xml:space="preserve">corr(exp,Test) </t>
         </is>
       </c>
       <c r="D14" s="14">
-        <f>data!D17</f>
+        <f>data!D18</f>
         <v/>
       </c>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="14">
-        <f>data!E17</f>
+        <f>data!E18</f>
         <v/>
       </c>
       <c r="G14" s="16" t="n"/>
       <c r="H14" s="16">
-        <f>data!F17</f>
+        <f>data!F18</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">corr(exp,Test) </t>
+          <t xml:space="preserve">Corr(Port,p) </t>
         </is>
       </c>
       <c r="D15" s="14">
-        <f>data!D18</f>
+        <f>data!D20</f>
         <v/>
       </c>
       <c r="E15" s="14" t="n"/>
       <c r="F15" s="14">
-        <f>data!E18</f>
+        <f>data!E20</f>
         <v/>
       </c>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="16">
-        <f>data!F18</f>
+        <f>data!F20</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Corr(Port,p) </t>
+          <t xml:space="preserve">Corr(Test,p) </t>
         </is>
       </c>
       <c r="D16" s="14">
-        <f>data!D20</f>
+        <f>data!D21</f>
         <v/>
       </c>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="14">
-        <f>data!E20</f>
+        <f>data!E21</f>
         <v/>
       </c>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16">
-        <f>data!F20</f>
+        <f>data!F21</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corr(Test,p) </t>
-        </is>
-      </c>
-      <c r="D17" s="14">
-        <f>data!D21</f>
-        <v/>
-      </c>
+      <c r="D17" s="14" t="n"/>
       <c r="E17" s="14" t="n"/>
-      <c r="F17" s="14">
-        <f>data!E21</f>
-        <v/>
-      </c>
+      <c r="F17" s="14" t="n"/>
       <c r="G17" s="16" t="n"/>
-      <c r="H17" s="16">
-        <f>data!F21</f>
-        <v/>
-      </c>
+      <c r="H17" s="16" t="n"/>
     </row>
     <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B. Control group (2018- teachers)</t>
+        </is>
+      </c>
       <c r="D18" s="14" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="14" t="n"/>
@@ -1856,58 +1869,58 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>B. Control group (2018- teachers)</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="n"/>
+          <t>Average of past portfolio-test</t>
+        </is>
+      </c>
+      <c r="D19" s="14">
+        <f>data!D11</f>
+        <v/>
+      </c>
       <c r="E19" s="14" t="n"/>
-      <c r="F19" s="14" t="n"/>
+      <c r="F19" s="14">
+        <f>data!E11</f>
+        <v/>
+      </c>
       <c r="G19" s="16" t="n"/>
-      <c r="H19" s="16" t="n"/>
+      <c r="H19" s="16">
+        <f>data!F11</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Average of past portfolio-test</t>
+          <t>% advanced or expert</t>
         </is>
       </c>
       <c r="D20" s="14">
-        <f>data!D11</f>
+        <f>data!D19*100</f>
         <v/>
       </c>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="14">
-        <f>data!E11</f>
+        <f>data!E19*100</f>
         <v/>
       </c>
       <c r="G20" s="16" t="n"/>
       <c r="H20" s="16">
-        <f>data!F11</f>
+        <f>data!F19*100</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>% advanced or expert</t>
-        </is>
-      </c>
-      <c r="D21" s="14">
-        <f>data!D19*100</f>
-        <v/>
-      </c>
+      <c r="D21" s="14" t="n"/>
       <c r="E21" s="14" t="n"/>
-      <c r="F21" s="14">
-        <f>data!E19*100</f>
-        <v/>
-      </c>
+      <c r="F21" s="14" t="n"/>
       <c r="G21" s="16" t="n"/>
-      <c r="H21" s="16">
-        <f>data!F19*100</f>
-        <v/>
-      </c>
+      <c r="H21" s="16" t="n"/>
     </row>
     <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C. Full sample</t>
+        </is>
+      </c>
       <c r="D22" s="14" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="14" t="n"/>
@@ -1917,75 +1930,63 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>C. Full sample</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="n"/>
+          <t>Mean SIMCE</t>
+        </is>
+      </c>
+      <c r="D23" s="14">
+        <f>data!D7</f>
+        <v/>
+      </c>
       <c r="E23" s="14" t="n"/>
-      <c r="F23" s="14" t="n"/>
+      <c r="F23" s="14">
+        <f>data!E7</f>
+        <v/>
+      </c>
       <c r="G23" s="16" t="n"/>
-      <c r="H23" s="16" t="n"/>
+      <c r="H23" s="16">
+        <f>data!F7</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mean SIMCE</t>
+          <t>Variance SIMCE</t>
         </is>
       </c>
       <c r="D24" s="14">
-        <f>data!D7</f>
+        <f>data!D8</f>
         <v/>
       </c>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="14">
-        <f>data!E7</f>
+        <f>data!E8</f>
         <v/>
       </c>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="16">
-        <f>data!F7</f>
+        <f>data!F8</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Variance SIMCE</t>
-        </is>
-      </c>
-      <c r="D25" s="14">
-        <f>data!D8</f>
-        <v/>
-      </c>
-      <c r="E25" s="14" t="n"/>
-      <c r="F25" s="14">
-        <f>data!E8</f>
-        <v/>
-      </c>
-      <c r="G25" s="16" t="n"/>
-      <c r="H25" s="16">
-        <f>data!F8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Corr(Simce,Exp)</t>
         </is>
       </c>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="6">
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="6">
         <f>data!D22</f>
         <v/>
       </c>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="6">
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6">
         <f>data!E22</f>
         <v/>
       </c>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11">
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11">
         <f>data!F22</f>
         <v/>
       </c>
@@ -1993,4 +1994,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -486,13 +486,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.334481465252155</v>
+        <v>2.397816531076765</v>
       </c>
       <c r="E5" t="n">
-        <v>2.580110813617706</v>
+        <v>2.597628049850464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08176001625193983</v>
+        <v>0.0827659940555151</v>
       </c>
       <c r="G5" t="n">
         <v>0.5</v>
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06304154895794926</v>
+        <v>0.06636558927171611</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06096502326056361</v>
+        <v>0.05482091078162193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002667993418089886</v>
+        <v>0.003838923879647412</v>
       </c>
       <c r="G6" t="n">
         <v>0.1</v>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3509889664315783</v>
+        <v>-0.2565833129363568</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3493406109511852</v>
+        <v>-0.2524670787453652</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0115327425462048</v>
+        <v>0.01196320208198977</v>
       </c>
       <c r="G7" t="n">
         <v>0.2</v>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2481196581417857</v>
+        <v>0.2595568604739846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2464505309313536</v>
+        <v>0.2585046042799949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008284475005338384</v>
+        <v>0.01107339326875599</v>
       </c>
       <c r="G8" t="n">
         <v>-0.01</v>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.464879218125172</v>
+        <v>2.511200844530567</v>
       </c>
       <c r="E9" t="n">
-        <v>2.587153523921967</v>
+        <v>2.640055909395218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08239477748992292</v>
+        <v>0.08535356757276182</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2390396292501084</v>
+        <v>0.1709774225534999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2593775341957807</v>
+        <v>0.1635836068242788</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01006311784609043</v>
+        <v>0.01079100105634131</v>
       </c>
       <c r="G10" t="n">
         <v>0.8</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.394167747031487</v>
+        <v>2.445665518176387</v>
       </c>
       <c r="E11" t="n">
-        <v>2.414178857578098</v>
+        <v>2.443338379147864</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07642074172699237</v>
+        <v>0.07752312615622602</v>
       </c>
       <c r="G11" t="n">
         <v>0.5</v>
@@ -689,13 +689,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3122126745435016</v>
+        <v>0.2825316455696203</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2806614651841889</v>
+        <v>0.2406831810677229</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01227379414580883</v>
+        <v>0.01962425325284537</v>
       </c>
       <c r="G12" t="n">
         <v>0.2</v>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3963050483351235</v>
+        <v>0.5058589511754069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5355984041030686</v>
+        <v>0.5988931985806053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01939282459123494</v>
+        <v>0.0276045855282691</v>
       </c>
       <c r="G13" t="n">
         <v>-0.01</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1570891514500537</v>
+        <v>0.1686799276672694</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1440756446558492</v>
+        <v>0.1285060648334402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008237021923345316</v>
+        <v>0.0145058214945989</v>
       </c>
       <c r="G14" t="n">
         <v>0.1</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2426329908161975</v>
+        <v>0.1523216217674162</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2248075794426195</v>
+        <v>0.2306452291249177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0188053778978506</v>
+        <v>0.04050777531227545</v>
       </c>
       <c r="G15" t="n">
         <v>0.7</v>
@@ -805,13 +805,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2168432655897576</v>
+        <v>0.2479215399152589</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2115540695787249</v>
+        <v>0.1164778403135705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02079405916577871</v>
+        <v>0.04049044875080719</v>
       </c>
       <c r="G16" t="n">
         <v>-0.4</v>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.04741708855967446</v>
+        <v>-0.2352215329900356</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0534201121761735</v>
+        <v>-0.07861886063708427</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01901255028689232</v>
+        <v>0.04373606520878793</v>
       </c>
       <c r="G17" t="n">
         <v>0.3</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1734706977807524</v>
+        <v>0.02066697045606621</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01647283785540881</v>
+        <v>0.01503141259971937</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01871554843391677</v>
+        <v>0.04401667665739975</v>
       </c>
       <c r="G18" t="n">
         <v>0.9</v>
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3497972195165147</v>
+        <v>0.4319717261904763</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3205286526586854</v>
+        <v>0.324801336264248</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0106812637549021</v>
+        <v>0.01380040776130307</v>
       </c>
       <c r="G19" t="n">
         <v>-0.1</v>
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4507337182811314</v>
+        <v>0.422388284393487</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5849596750073122</v>
+        <v>0.5546846974207648</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02336291185204391</v>
+        <v>0.03517494308405321</v>
       </c>
       <c r="G20" t="n">
         <v>-0.2</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.320984995098799</v>
+        <v>0.1006439287204725</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3110667178387777</v>
+        <v>0.277658182292304</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01971975353464254</v>
+        <v>0.0378837725795074</v>
       </c>
       <c r="G21" t="n">
         <v>0.8</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.03462097847649802</v>
+        <v>0.03322399280641591</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0392123264834722</v>
+        <v>0.01511867456944235</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007014148367127777</v>
+        <v>0.01787958565283277</v>
       </c>
       <c r="J22">
         <f>(D22-E22)^2/F22^2</f>
